--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\repo\Maven-e2e-WPH\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowHeight="22380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -65,8 +47,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +68,160 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,10 +235,193 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -121,39 +444,394 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -411,20 +1089,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -445,79 +1125,97 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="14.75" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -538,56 +1236,57 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22380"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,297 @@
   </si>
   <si>
     <t>/samples/discussion-post</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/138</t>
+  </si>
+  <si>
+    <t>/samples/essay/gender-studies</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/139</t>
+  </si>
+  <si>
+    <t>/samples/essay/persuasive-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/140</t>
+  </si>
+  <si>
+    <t>/samples/essay/mba-application</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/141</t>
+  </si>
+  <si>
+    <t>/samples/essay/anthropology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/142</t>
+  </si>
+  <si>
+    <t>/samples/essay/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/143</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/health-care</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/144</t>
+  </si>
+  <si>
+    <t>/discussion-post/history</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/145</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/146</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/147</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/culture-and-society</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/148</t>
+  </si>
+  <si>
+    <t>/samples/term-paper/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/149</t>
+  </si>
+  <si>
+    <t>/samples/homework/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/150</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/151</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/gun-control</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/152</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/business-managment</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/153</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/phd</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/154</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/mla</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/155</t>
+  </si>
+  <si>
+    <t>/samples/personal-statement/medicine</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/156</t>
+  </si>
+  <si>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/157</t>
+  </si>
+  <si>
+    <t>/samples/speech/graduation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/158</t>
+  </si>
+  <si>
+    <t>/samples/speech/high-school</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/159</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/spectrophotometry-lab</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/160</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/chemistry</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/161</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/physics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/162</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/biology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/163</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/164</t>
+  </si>
+  <si>
+    <t>/samples/lesson-plan/education</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/165</t>
+  </si>
+  <si>
+    <t>/samples/nursing-plan/nursing</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/166</t>
+  </si>
+  <si>
+    <t>/samples/epq-essay/essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/167</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/168</t>
+  </si>
+  <si>
+    <t>/samples/question-answer/psychology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/169</t>
+  </si>
+  <si>
+    <t>/samples/ib/trade-protectionism</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/170</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/171</t>
+  </si>
+  <si>
+    <t>/samples/ib/how-does-the-tension-affect-the-frequency-of-standing-wave</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/172</t>
+  </si>
+  <si>
+    <t>/samples/ib/do-we-need-custodians-of-knowledge</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/173</t>
+  </si>
+  <si>
+    <t>/samples/ib/physics-hl-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/174</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-aa-hl</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/175</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-essay-2023</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/176</t>
+  </si>
+  <si>
+    <t>/samples/ib/bio-ee</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/177</t>
+  </si>
+  <si>
+    <t>/samples/ib/business-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/178</t>
+  </si>
+  <si>
+    <t>/samples/ib/high-school-math-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/179</t>
+  </si>
+  <si>
+    <t>/samples/ib/november-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/180</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-sl-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/181</t>
+  </si>
+  <si>
+    <t>/samples/ib/microeconomics-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/182</t>
+  </si>
+  <si>
+    <t>/samples/ib/may-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/183</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/184</t>
+  </si>
+  <si>
+    <t>/samples/ib/history-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/185</t>
+  </si>
+  <si>
+    <t>/samples/ib/extended-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/186</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-exhibition-level</t>
   </si>
 </sst>
 </file>
@@ -49,12 +340,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,17 +362,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,23 +383,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -127,21 +427,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,22 +447,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,24 +460,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,13 +519,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,175 +704,10 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -441,66 +727,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,16 +755,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -559,6 +785,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -570,17 +811,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,164 +828,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -758,23 +984,299 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,16 +1597,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A2" sqref="A2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1125,77 +1627,432 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="14.75" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="85">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s" s="86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="87">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s" s="88">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s" s="90">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="91">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s" s="92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="93">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s" s="94">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="95">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s" s="96">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="97">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s" s="98">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="99">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s" s="100">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="A50" t="s" s="101">
+        <v>104</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,13 +2066,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\repo\Maven-e2e-WPH\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,14 +343,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,149 +361,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,196 +380,10 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -730,249 +406,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,356 +421,313 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1591,22 +985,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C50"/>
+      <selection activeCell="L40" activeCellId="1" sqref="A43 L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1703,7 +1097,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
@@ -1719,7 +1113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
@@ -1743,7 +1137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" s="29" t="s">
         <v>33</v>
       </c>
@@ -1751,7 +1145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
         <v>35</v>
       </c>
@@ -1759,7 +1153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5">
       <c r="A16" s="33" t="s">
         <v>37</v>
       </c>
@@ -1967,112 +1361,113 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="85">
+    <row r="42" spans="1:2">
+      <c r="A42" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B42" t="s" s="86">
+      <c r="B42" s="86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="87">
+    <row r="43" spans="1:2">
+      <c r="A43" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B43" t="s" s="88">
+      <c r="B43" s="87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="89" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s" s="90">
+      <c r="B44" s="89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="91">
+    <row r="45" spans="1:2">
+      <c r="A45" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="B45" t="s" s="92">
+      <c r="B45" s="91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="93">
+    <row r="46" spans="1:2">
+      <c r="A46" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B46" t="s" s="94">
+      <c r="B46" s="93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="95">
+    <row r="47" spans="1:2">
+      <c r="A47" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B47" t="s" s="96">
+      <c r="B47" s="95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="97">
+    <row r="48" spans="1:2">
+      <c r="A48" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B48" t="s" s="98">
+      <c r="B48" s="97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="99">
+    <row r="49" spans="1:2">
+      <c r="A49" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="B49" t="s" s="100">
+      <c r="B49" s="99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="A50" t="s" s="101">
+    <row r="50" spans="1:2">
+      <c r="A50" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="101" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2">
       <c r="A58" s="2"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:2">
       <c r="B65" s="2"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2">
       <c r="A74" s="2"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2">
       <c r="B82" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:2">
       <c r="A92" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A43" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2144,6 +1539,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\repo\Maven-e2e-WPH\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -338,12 +338,61 @@
   </si>
   <si>
     <t>/samples/ib/tok-exhibition-level</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/166</t>
+  </si>
+  <si>
+    <t>/samples</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/187</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/188</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/189</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/190</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/191</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/192</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/193</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/194</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/195</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/196</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/197</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/198</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/199</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -366,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +430,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="2">
@@ -413,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -713,6 +765,573 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L40" activeCellId="1" sqref="A43 L40"/>
@@ -999,8 +1618,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1030,6 +1649,9 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="N2" t="s" s="243">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
@@ -1041,6 +1663,9 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="N3" t="s" s="246">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
@@ -1052,6 +1677,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="N4" t="s" s="249">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
@@ -1063,6 +1691,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="N5" t="s" s="252">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
@@ -1074,6 +1705,9 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="N6" t="s" s="255">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
@@ -1085,6 +1719,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="N7" t="s" s="258">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
@@ -1096,6 +1733,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="N8" t="s" s="261">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
@@ -1104,6 +1744,9 @@
       <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="N9" t="s" s="264">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
@@ -1112,6 +1755,9 @@
       <c r="B10" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="N10" t="s" s="267">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="23" t="s">
@@ -1120,6 +1766,9 @@
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="N11" t="s" s="270">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
@@ -1128,6 +1777,9 @@
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
+      <c r="N12" t="s" s="273">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
@@ -1136,6 +1788,9 @@
       <c r="B13" s="28" t="s">
         <v>32</v>
       </c>
+      <c r="N13" t="s" s="276">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="29" t="s">
@@ -1144,6 +1799,9 @@
       <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
+      <c r="N14" t="s" s="279">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
@@ -1152,6 +1810,9 @@
       <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
+      <c r="N15" t="s" s="282">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="33" t="s">
@@ -1160,6 +1821,9 @@
       <c r="B16" s="34" t="s">
         <v>38</v>
       </c>
+      <c r="N16" t="s" s="285">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="35" t="s">
@@ -1168,6 +1832,9 @@
       <c r="B17" s="36" t="s">
         <v>40</v>
       </c>
+      <c r="N17" t="s" s="288">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="37" t="s">
@@ -1176,6 +1843,9 @@
       <c r="B18" s="38" t="s">
         <v>42</v>
       </c>
+      <c r="N18" t="s" s="291">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="39" t="s">
@@ -1184,6 +1854,9 @@
       <c r="B19" s="40" t="s">
         <v>44</v>
       </c>
+      <c r="N19" t="s" s="198">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="41" t="s">
@@ -1192,6 +1865,9 @@
       <c r="B20" s="42" t="s">
         <v>46</v>
       </c>
+      <c r="N20" t="s" s="201">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="43" t="s">
@@ -1200,6 +1876,9 @@
       <c r="B21" s="44" t="s">
         <v>48</v>
       </c>
+      <c r="N21" t="s" s="204">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="45" t="s">
@@ -1208,6 +1887,9 @@
       <c r="B22" s="46" t="s">
         <v>50</v>
       </c>
+      <c r="N22" t="s" s="207">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="47" t="s">
@@ -1216,6 +1898,9 @@
       <c r="B23" s="48" t="s">
         <v>52</v>
       </c>
+      <c r="N23" t="s" s="210">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="49" t="s">
@@ -1224,6 +1909,9 @@
       <c r="B24" s="50" t="s">
         <v>54</v>
       </c>
+      <c r="N24" t="s" s="213">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="51" t="s">
@@ -1232,6 +1920,9 @@
       <c r="B25" s="52" t="s">
         <v>56</v>
       </c>
+      <c r="N25" t="s" s="216">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="53" t="s">
@@ -1240,6 +1931,9 @@
       <c r="B26" s="54" t="s">
         <v>58</v>
       </c>
+      <c r="N26" t="s" s="219">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="55" t="s">
@@ -1248,6 +1942,9 @@
       <c r="B27" s="56" t="s">
         <v>60</v>
       </c>
+      <c r="N27" t="s" s="222">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="57" t="s">
@@ -1256,6 +1953,9 @@
       <c r="B28" s="58" t="s">
         <v>62</v>
       </c>
+      <c r="N28" t="s" s="225">
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
@@ -1264,6 +1964,9 @@
       <c r="B29" s="60" t="s">
         <v>64</v>
       </c>
+      <c r="N29" t="s" s="228">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="61" t="s">
@@ -1272,6 +1975,9 @@
       <c r="B30" s="62" t="s">
         <v>66</v>
       </c>
+      <c r="N30" t="s" s="231">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="63" t="s">
@@ -1280,6 +1986,9 @@
       <c r="B31" s="64" t="s">
         <v>68</v>
       </c>
+      <c r="N31" t="s" s="234">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="65" t="s">
@@ -1288,6 +1997,9 @@
       <c r="B32" s="66" t="s">
         <v>70</v>
       </c>
+      <c r="N32" t="s" s="237">
+        <v>106</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="67" t="s">
@@ -1433,20 +2145,509 @@
         <v>105</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s" s="103">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s" s="104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="106">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s" s="107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="109">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s" s="110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="112">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s" s="113">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="115">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s" s="116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="118">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s" s="119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="121">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s" s="122">
+        <v>22</v>
+      </c>
+    </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s" s="125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="127">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s" s="128">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="130">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s" s="131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="133">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s" s="134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="136">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s" s="137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="139">
+        <v>33</v>
+      </c>
+      <c r="B63" t="s" s="140">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="142">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s" s="143">
+        <v>36</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="B65" s="2"/>
+      <c r="A65" t="s" s="145">
+        <v>37</v>
+      </c>
+      <c r="B65" s="146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="148">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s" s="149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="151">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s" s="152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="154">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s" s="155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="157">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s" s="158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="160">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s" s="161">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="163">
+        <v>49</v>
+      </c>
+      <c r="B71" t="s" s="164">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="166">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s" s="167">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="169">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s" s="170">
+        <v>26</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s" s="173">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="175">
+        <v>57</v>
+      </c>
+      <c r="B75" t="s" s="176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="178">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s" s="179">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="181">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s" s="182">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="184">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s" s="185">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="187">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s" s="188">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="190">
+        <v>67</v>
+      </c>
+      <c r="B80" t="s" s="191">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="193">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s" s="194">
+        <v>42</v>
+      </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="B82" s="2"/>
+      <c r="A82" t="s" s="196">
+        <v>71</v>
+      </c>
+      <c r="B82" s="197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="199">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s" s="200">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="202">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s" s="203">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="205">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s" s="206">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="208">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s" s="209">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="211">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s" s="212">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="214">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s" s="215">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="217">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s" s="218">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="220">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s" s="221">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="223">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s" s="224">
+        <v>62</v>
+      </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="226" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s" s="227">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="229">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s" s="230">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="232">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s" s="233">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="235">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s" s="236">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="238">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s" s="239">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="241">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s" s="242">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="244">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s" s="245">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="247">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s" s="248">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="250">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s" s="251">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="253">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s" s="254">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="256">
+        <v>110</v>
+      </c>
+      <c r="B102" t="s" s="257">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="259">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s" s="260">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="262">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s" s="263">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="265">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s" s="266">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="268">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s" s="269">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="271">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s" s="272">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="274">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s" s="275">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="277">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s" s="278">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="280">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s" s="281">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="283">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s" s="284">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="286">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s" s="287">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="289">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s" s="290">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1466,8 +2667,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\repo\Maven-e2e-WPH\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -392,7 +392,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -432,7 +431,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -465,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -767,571 +766,763 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,19 +1801,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" activeCellId="1" sqref="A43 L40"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1649,11 +1840,11 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="N2" t="s" s="243">
+      <c r="N2" s="307" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1663,11 +1854,11 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="N3" t="s" s="246">
+      <c r="N3" s="310" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1677,11 +1868,11 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="N4" t="s" s="249">
+      <c r="N4" s="313" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:14">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1691,11 +1882,11 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="N5" t="s" s="252">
+      <c r="N5" s="316" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
@@ -1705,11 +1896,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="N6" t="s" s="255">
+      <c r="N6" s="319" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:14">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1719,11 +1910,11 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="N7" t="s" s="258">
+      <c r="N7" s="322" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
@@ -1733,271 +1924,271 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="N8" t="s" s="261">
+      <c r="N8" s="325" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N9" t="s" s="264">
+      <c r="N9" s="328" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N10" t="s" s="267">
+      <c r="N10" s="331" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N11" t="s" s="270">
+      <c r="N11" s="334" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:14">
       <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N12" t="s" s="273">
+      <c r="N12" s="337" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:14">
       <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="N13" t="s" s="276">
+      <c r="N13" s="340" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:14">
       <c r="A14" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N14" t="s" s="279">
+      <c r="N14" s="343" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:14">
       <c r="A15" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N15" t="s" s="282">
+      <c r="N15" s="346" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:14">
       <c r="A16" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N16" t="s" s="285">
+      <c r="N16" s="349" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:14">
       <c r="A17" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N17" t="s" s="288">
+      <c r="N17" s="352" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:14">
       <c r="A18" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="N18" t="s" s="291">
+      <c r="N18" s="355" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:14">
       <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N19" t="s" s="198">
+      <c r="N19" s="265" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:14">
       <c r="A20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="N20" t="s" s="201">
+      <c r="N20" s="268" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:14">
       <c r="A21" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N21" t="s" s="204">
+      <c r="N21" s="271" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:14">
       <c r="A22" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="N22" t="s" s="207">
+      <c r="N22" s="274" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:14">
       <c r="A23" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="N23" t="s" s="210">
+      <c r="N23" s="277" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:14">
       <c r="A24" s="49" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N24" t="s" s="213">
+      <c r="N24" s="280" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:14">
       <c r="A25" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="N25" t="s" s="216">
+      <c r="N25" s="283" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:14">
       <c r="A26" s="53" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="N26" t="s" s="219">
+      <c r="N26" s="286" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:14">
       <c r="A27" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="N27" t="s" s="222">
+      <c r="N27" s="289" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:14">
       <c r="A28" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="N28" t="s" s="225">
+      <c r="N28" s="292" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:14">
       <c r="A29" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="N29" t="s" s="228">
+      <c r="N29" s="295" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:14">
       <c r="A30" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="N30" t="s" s="231">
+      <c r="N30" s="298" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:14">
       <c r="A31" s="63" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="N31" t="s" s="234">
+      <c r="N31" s="301" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:14">
       <c r="A32" s="65" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="N32" t="s" s="237">
+      <c r="N32" s="304" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2145,507 +2336,891 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="103">
+    <row r="51" spans="1:2">
+      <c r="A51" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="104">
+      <c r="B51" s="104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="106">
+    <row r="52" spans="1:2">
+      <c r="A52" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B52" t="s" s="107">
+      <c r="B52" s="106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="109">
+    <row r="53" spans="1:2">
+      <c r="A53" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s" s="110">
+      <c r="B53" s="108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="112">
+    <row r="54" spans="1:2">
+      <c r="A54" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B54" t="s" s="113">
+      <c r="B54" s="110" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="115">
+    <row r="55" spans="1:2">
+      <c r="A55" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B55" t="s" s="116">
+      <c r="B55" s="112" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="118">
+    <row r="56" spans="1:2">
+      <c r="A56" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B56" t="s" s="119">
+      <c r="B56" s="114" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="121">
+    <row r="57" spans="1:2">
+      <c r="A57" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="s" s="122">
+      <c r="B57" s="116" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="124" t="s">
+      <c r="A58" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B58" t="s" s="125">
+      <c r="B58" s="118" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="127">
+    <row r="59" spans="1:2">
+      <c r="A59" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="B59" t="s" s="128">
+      <c r="B59" s="120" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="130">
+    <row r="60" spans="1:2">
+      <c r="A60" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B60" t="s" s="131">
+      <c r="B60" s="122" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="133">
+    <row r="61" spans="1:2">
+      <c r="A61" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B61" t="s" s="134">
+      <c r="B61" s="124" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="136">
+    <row r="62" spans="1:2">
+      <c r="A62" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B62" t="s" s="137">
+      <c r="B62" s="126" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="139">
+    <row r="63" spans="1:2">
+      <c r="A63" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B63" t="s" s="140">
+      <c r="B63" s="128" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="142">
+    <row r="64" spans="1:2">
+      <c r="A64" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="B64" t="s" s="143">
+      <c r="B64" s="130" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s" s="145">
+      <c r="A65" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="132" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="148">
+    <row r="66" spans="1:2">
+      <c r="A66" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B66" t="s" s="149">
+      <c r="B66" s="134" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="151">
+    <row r="67" spans="1:2">
+      <c r="A67" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B67" t="s" s="152">
+      <c r="B67" s="136" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="154">
+    <row r="68" spans="1:2">
+      <c r="A68" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B68" t="s" s="155">
+      <c r="B68" s="138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="157">
+    <row r="69" spans="1:2">
+      <c r="A69" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B69" t="s" s="158">
+      <c r="B69" s="140" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="160">
+    <row r="70" spans="1:2">
+      <c r="A70" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="B70" t="s" s="161">
+      <c r="B70" s="142" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="163">
+    <row r="71" spans="1:2">
+      <c r="A71" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="B71" t="s" s="164">
+      <c r="B71" s="144" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="166">
+    <row r="72" spans="1:2">
+      <c r="A72" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="B72" t="s" s="167">
+      <c r="B72" s="146" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="169">
+    <row r="73" spans="1:2">
+      <c r="A73" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="B73" t="s" s="170">
+      <c r="B73" s="148" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="172" t="s">
+      <c r="A74" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="B74" t="s" s="173">
+      <c r="B74" s="150" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="175">
+    <row r="75" spans="1:2">
+      <c r="A75" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B75" t="s" s="176">
+      <c r="B75" s="152" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="178">
+    <row r="76" spans="1:2">
+      <c r="A76" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="B76" t="s" s="179">
+      <c r="B76" s="154" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="181">
+    <row r="77" spans="1:2">
+      <c r="A77" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="B77" t="s" s="182">
+      <c r="B77" s="156" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="184">
+    <row r="78" spans="1:2">
+      <c r="A78" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="B78" t="s" s="185">
+      <c r="B78" s="158" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="187">
+    <row r="79" spans="1:2">
+      <c r="A79" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="B79" t="s" s="188">
+      <c r="B79" s="160" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="190">
+    <row r="80" spans="1:2">
+      <c r="A80" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="B80" t="s" s="191">
+      <c r="B80" s="162" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="193">
+    <row r="81" spans="1:2">
+      <c r="A81" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="B81" t="s" s="194">
+      <c r="B81" s="164" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s" s="196">
+      <c r="A82" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="197" t="s">
+      <c r="B82" s="166" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="199">
+    <row r="83" spans="1:2">
+      <c r="A83" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="B83" t="s" s="200">
+      <c r="B83" s="168" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="202">
+    <row r="84" spans="1:2">
+      <c r="A84" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="B84" t="s" s="203">
+      <c r="B84" s="170" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="205">
+    <row r="85" spans="1:2">
+      <c r="A85" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s" s="206">
+      <c r="B85" s="172" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="208">
+    <row r="86" spans="1:2">
+      <c r="A86" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="B86" t="s" s="209">
+      <c r="B86" s="174" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s" s="211">
+    <row r="87" spans="1:2">
+      <c r="A87" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="B87" t="s" s="212">
+      <c r="B87" s="176" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="214">
+    <row r="88" spans="1:2">
+      <c r="A88" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="B88" t="s" s="215">
+      <c r="B88" s="178" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="217">
+    <row r="89" spans="1:2">
+      <c r="A89" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="B89" t="s" s="218">
+      <c r="B89" s="180" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="220">
+    <row r="90" spans="1:2">
+      <c r="A90" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="B90" t="s" s="221">
+      <c r="B90" s="182" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="223">
+    <row r="91" spans="1:2">
+      <c r="A91" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="B91" t="s" s="224">
+      <c r="B91" s="184" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="226" t="s">
+      <c r="A92" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s" s="227">
+      <c r="B92" s="186" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s" s="229">
+    <row r="93" spans="1:2">
+      <c r="A93" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s" s="230">
+      <c r="B93" s="188" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="232">
+    <row r="94" spans="1:2">
+      <c r="A94" s="189" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s" s="233">
+      <c r="B94" s="190" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s" s="235">
+    <row r="95" spans="1:2">
+      <c r="A95" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s" s="236">
+      <c r="B95" s="192" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="238">
+    <row r="96" spans="1:2">
+      <c r="A96" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="B96" t="s" s="239">
+      <c r="B96" s="194" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="241">
+    <row r="97" spans="1:2">
+      <c r="A97" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s" s="242">
+      <c r="B97" s="196" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="244">
+    <row r="98" spans="1:2">
+      <c r="A98" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="B98" t="s" s="245">
+      <c r="B98" s="198" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="247">
+    <row r="99" spans="1:2">
+      <c r="A99" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s" s="248">
+      <c r="B99" s="200" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s" s="250">
+    <row r="100" spans="1:2">
+      <c r="A100" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s" s="251">
+      <c r="B100" s="202" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="s" s="253">
+    <row r="101" spans="1:2">
+      <c r="A101" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="B101" t="s" s="254">
+      <c r="B101" s="204" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s" s="256">
+    <row r="102" spans="1:2">
+      <c r="A102" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="B102" t="s" s="257">
+      <c r="B102" s="206" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="s" s="259">
+    <row r="103" spans="1:2">
+      <c r="A103" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="B103" t="s" s="260">
+      <c r="B103" s="208" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s" s="262">
+    <row r="104" spans="1:2">
+      <c r="A104" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B104" t="s" s="263">
+      <c r="B104" s="210" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s" s="265">
+    <row r="105" spans="1:2">
+      <c r="A105" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="B105" t="s" s="266">
+      <c r="B105" s="212" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s" s="268">
+    <row r="106" spans="1:2">
+      <c r="A106" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="B106" t="s" s="269">
+      <c r="B106" s="214" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="271">
+    <row r="107" spans="1:2">
+      <c r="A107" s="215" t="s">
         <v>115</v>
       </c>
-      <c r="B107" t="s" s="272">
+      <c r="B107" s="216" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="274">
+    <row r="108" spans="1:2">
+      <c r="A108" s="217" t="s">
         <v>116</v>
       </c>
-      <c r="B108" t="s" s="275">
+      <c r="B108" s="218" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="277">
+    <row r="109" spans="1:2">
+      <c r="A109" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="B109" t="s" s="278">
+      <c r="B109" s="220" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s" s="280">
+    <row r="110" spans="1:2">
+      <c r="A110" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="B110" t="s" s="281">
+      <c r="B110" s="222" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="s" s="283">
+    <row r="111" spans="1:2">
+      <c r="A111" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="B111" t="s" s="284">
+      <c r="B111" s="224" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="s" s="286">
+    <row r="112" spans="1:2">
+      <c r="A112" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="B112" t="s" s="287">
+      <c r="B112" s="226" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s" s="289">
+    <row r="113" spans="1:2">
+      <c r="A113" s="227" t="s">
         <v>121</v>
       </c>
-      <c r="B113" t="s" s="290">
+      <c r="B113" s="228" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="231" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="237" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="239" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="241" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" s="242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="243" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="244" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="245" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" s="246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="247" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="248" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="249" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="250" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="253" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="254" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="255" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="256" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="257" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" s="258" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="259" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="260" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" s="262" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="263" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="264" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="266" t="s">
+        <v>55</v>
+      </c>
+      <c r="B132" s="267" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="269" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="270" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="272" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" s="273" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="275" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="276" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="278" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="279" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="281" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" s="282" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="284" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" s="285" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="287" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" s="288" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="290" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" s="291" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="293" t="s">
+        <v>73</v>
+      </c>
+      <c r="B141" s="294" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="296" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="297" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="299" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="300" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="302" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144" s="303" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="305" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" s="306" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="308" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" s="309" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="311" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="312" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="314" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" s="315" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="317" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" s="318" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="320" t="s">
+        <v>90</v>
+      </c>
+      <c r="B150" s="321" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="323" t="s">
+        <v>92</v>
+      </c>
+      <c r="B151" s="324" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="326" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" s="327" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="329" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="330" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="332" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" s="333" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="335" t="s">
+        <v>100</v>
+      </c>
+      <c r="B155" s="336" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="338" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" s="339" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="341" t="s">
+        <v>104</v>
+      </c>
+      <c r="B157" s="342" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="344" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158" s="345" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="347" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="348" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="350" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160" s="351" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="353" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" s="354" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2667,8 +3242,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\repo\Maven-e2e-WPH\src\test\resources\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -392,6 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -414,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +433,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="2">
@@ -464,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1523,6 +1527,750 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1801,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
@@ -1809,8 +2557,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3222,6 +3970,998 @@
       </c>
       <c r="B161" s="354" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="356">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s" s="357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="358">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s" s="359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="360">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s" s="361">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="362">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s" s="363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="364">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s" s="365">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="366">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s" s="367">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="368">
+        <v>15</v>
+      </c>
+      <c r="B168" t="s" s="369">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="370">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s" s="371">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="372">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s" s="373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="374">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s" s="375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="376">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s" s="377">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="378">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s" s="379">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="380">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s" s="381">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="382">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s" s="383">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="384">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s" s="385">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="386">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s" s="387">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="388">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s" s="389">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="390">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s" s="391">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="392">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s" s="393">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="394">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s" s="395">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="396">
+        <v>29</v>
+      </c>
+      <c r="B182" t="s" s="397">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="398">
+        <v>29</v>
+      </c>
+      <c r="B183" t="s" s="399">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="400">
+        <v>31</v>
+      </c>
+      <c r="B184" t="s" s="401">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="402">
+        <v>31</v>
+      </c>
+      <c r="B185" t="s" s="403">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="404">
+        <v>33</v>
+      </c>
+      <c r="B186" t="s" s="405">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="406">
+        <v>33</v>
+      </c>
+      <c r="B187" t="s" s="407">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="408">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s" s="409">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="410">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s" s="411">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="412">
+        <v>37</v>
+      </c>
+      <c r="B190" t="s" s="413">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="414">
+        <v>37</v>
+      </c>
+      <c r="B191" t="s" s="415">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="416">
+        <v>39</v>
+      </c>
+      <c r="B192" t="s" s="417">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="418">
+        <v>39</v>
+      </c>
+      <c r="B193" t="s" s="419">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="420">
+        <v>41</v>
+      </c>
+      <c r="B194" t="s" s="421">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="422">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s" s="423">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="424">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s" s="425">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="426">
+        <v>43</v>
+      </c>
+      <c r="B197" t="s" s="427">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="428">
+        <v>45</v>
+      </c>
+      <c r="B198" t="s" s="429">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="430">
+        <v>45</v>
+      </c>
+      <c r="B199" t="s" s="431">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="432">
+        <v>47</v>
+      </c>
+      <c r="B200" t="s" s="433">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="434">
+        <v>47</v>
+      </c>
+      <c r="B201" t="s" s="435">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="436">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s" s="437">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="438">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s" s="439">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="440">
+        <v>51</v>
+      </c>
+      <c r="B204" t="s" s="441">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="442">
+        <v>51</v>
+      </c>
+      <c r="B205" t="s" s="443">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="444">
+        <v>53</v>
+      </c>
+      <c r="B206" t="s" s="445">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="446">
+        <v>53</v>
+      </c>
+      <c r="B207" t="s" s="447">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="448">
+        <v>55</v>
+      </c>
+      <c r="B208" t="s" s="449">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="450">
+        <v>55</v>
+      </c>
+      <c r="B209" t="s" s="451">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="452">
+        <v>57</v>
+      </c>
+      <c r="B210" t="s" s="453">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="454">
+        <v>57</v>
+      </c>
+      <c r="B211" t="s" s="455">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="456">
+        <v>59</v>
+      </c>
+      <c r="B212" t="s" s="457">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="458">
+        <v>59</v>
+      </c>
+      <c r="B213" t="s" s="459">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="460">
+        <v>61</v>
+      </c>
+      <c r="B214" t="s" s="461">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="462">
+        <v>61</v>
+      </c>
+      <c r="B215" t="s" s="463">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="464">
+        <v>63</v>
+      </c>
+      <c r="B216" t="s" s="465">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="466">
+        <v>63</v>
+      </c>
+      <c r="B217" t="s" s="467">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="468">
+        <v>65</v>
+      </c>
+      <c r="B218" t="s" s="469">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="470">
+        <v>65</v>
+      </c>
+      <c r="B219" t="s" s="471">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="472">
+        <v>67</v>
+      </c>
+      <c r="B220" t="s" s="473">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="474">
+        <v>67</v>
+      </c>
+      <c r="B221" t="s" s="475">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="476">
+        <v>69</v>
+      </c>
+      <c r="B222" t="s" s="477">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="478">
+        <v>69</v>
+      </c>
+      <c r="B223" t="s" s="479">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="480">
+        <v>71</v>
+      </c>
+      <c r="B224" t="s" s="481">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="482">
+        <v>71</v>
+      </c>
+      <c r="B225" t="s" s="483">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="484">
+        <v>73</v>
+      </c>
+      <c r="B226" t="s" s="485">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="486">
+        <v>73</v>
+      </c>
+      <c r="B227" t="s" s="487">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="488">
+        <v>74</v>
+      </c>
+      <c r="B228" t="s" s="489">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="490">
+        <v>74</v>
+      </c>
+      <c r="B229" t="s" s="491">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="492">
+        <v>76</v>
+      </c>
+      <c r="B230" t="s" s="493">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="494">
+        <v>76</v>
+      </c>
+      <c r="B231" t="s" s="495">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="496">
+        <v>78</v>
+      </c>
+      <c r="B232" t="s" s="497">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="498">
+        <v>78</v>
+      </c>
+      <c r="B233" t="s" s="499">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="500">
+        <v>80</v>
+      </c>
+      <c r="B234" t="s" s="501">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="502">
+        <v>80</v>
+      </c>
+      <c r="B235" t="s" s="503">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="504">
+        <v>82</v>
+      </c>
+      <c r="B236" t="s" s="505">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="506">
+        <v>82</v>
+      </c>
+      <c r="B237" t="s" s="507">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="508">
+        <v>84</v>
+      </c>
+      <c r="B238" t="s" s="509">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="510">
+        <v>84</v>
+      </c>
+      <c r="B239" t="s" s="511">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="512">
+        <v>86</v>
+      </c>
+      <c r="B240" t="s" s="513">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="514">
+        <v>86</v>
+      </c>
+      <c r="B241" t="s" s="515">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="516">
+        <v>88</v>
+      </c>
+      <c r="B242" t="s" s="517">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="518">
+        <v>88</v>
+      </c>
+      <c r="B243" t="s" s="519">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="520">
+        <v>90</v>
+      </c>
+      <c r="B244" t="s" s="521">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="522">
+        <v>90</v>
+      </c>
+      <c r="B245" t="s" s="523">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="524">
+        <v>92</v>
+      </c>
+      <c r="B246" t="s" s="525">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="526">
+        <v>92</v>
+      </c>
+      <c r="B247" t="s" s="527">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="528">
+        <v>94</v>
+      </c>
+      <c r="B248" t="s" s="529">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="530">
+        <v>94</v>
+      </c>
+      <c r="B249" t="s" s="531">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="532">
+        <v>96</v>
+      </c>
+      <c r="B250" t="s" s="533">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="534">
+        <v>96</v>
+      </c>
+      <c r="B251" t="s" s="535">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="536">
+        <v>98</v>
+      </c>
+      <c r="B252" t="s" s="537">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="538">
+        <v>98</v>
+      </c>
+      <c r="B253" t="s" s="539">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="540">
+        <v>100</v>
+      </c>
+      <c r="B254" t="s" s="541">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="542">
+        <v>100</v>
+      </c>
+      <c r="B255" t="s" s="543">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="544">
+        <v>102</v>
+      </c>
+      <c r="B256" t="s" s="545">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="546">
+        <v>102</v>
+      </c>
+      <c r="B257" t="s" s="547">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="548">
+        <v>104</v>
+      </c>
+      <c r="B258" t="s" s="549">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="550">
+        <v>104</v>
+      </c>
+      <c r="B259" t="s" s="551">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="552">
+        <v>109</v>
+      </c>
+      <c r="B260" t="s" s="553">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="554">
+        <v>109</v>
+      </c>
+      <c r="B261" t="s" s="555">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="556">
+        <v>110</v>
+      </c>
+      <c r="B262" t="s" s="557">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="558">
+        <v>110</v>
+      </c>
+      <c r="B263" t="s" s="559">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="560">
+        <v>111</v>
+      </c>
+      <c r="B264" t="s" s="561">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="562">
+        <v>111</v>
+      </c>
+      <c r="B265" t="s" s="563">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="564">
+        <v>112</v>
+      </c>
+      <c r="B266" t="s" s="565">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="566">
+        <v>112</v>
+      </c>
+      <c r="B267" t="s" s="567">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="568">
+        <v>113</v>
+      </c>
+      <c r="B268" t="s" s="569">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="570">
+        <v>113</v>
+      </c>
+      <c r="B269" t="s" s="571">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="572">
+        <v>114</v>
+      </c>
+      <c r="B270" t="s" s="573">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="574">
+        <v>114</v>
+      </c>
+      <c r="B271" t="s" s="575">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="576">
+        <v>115</v>
+      </c>
+      <c r="B272" t="s" s="577">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="578">
+        <v>115</v>
+      </c>
+      <c r="B273" t="s" s="579">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="580">
+        <v>116</v>
+      </c>
+      <c r="B274" t="s" s="581">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="582">
+        <v>116</v>
+      </c>
+      <c r="B275" t="s" s="583">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="584">
+        <v>117</v>
+      </c>
+      <c r="B276" t="s" s="585">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="586">
+        <v>117</v>
+      </c>
+      <c r="B277" t="s" s="587">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="588">
+        <v>118</v>
+      </c>
+      <c r="B278" t="s" s="589">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="590">
+        <v>118</v>
+      </c>
+      <c r="B279" t="s" s="591">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="592">
+        <v>119</v>
+      </c>
+      <c r="B280" t="s" s="593">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="594">
+        <v>119</v>
+      </c>
+      <c r="B281" t="s" s="595">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="596">
+        <v>120</v>
+      </c>
+      <c r="B282" t="s" s="597">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="598">
+        <v>120</v>
+      </c>
+      <c r="B283" t="s" s="599">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="600">
+        <v>121</v>
+      </c>
+      <c r="B284" t="s" s="601">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="602">
+        <v>121</v>
+      </c>
+      <c r="B285" t="s" s="603">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3242,8 +4982,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -631,6 +631,567 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/220</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/221</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/222</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/223</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/225</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/226</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/227</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/228</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/229</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/230</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/231</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/232</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/233</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/234</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/235</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/236</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/237</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/238</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/239</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/240</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/241</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/244</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/245</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/246</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/247</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/248</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/249</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/250</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/251</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/252</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/253</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/254</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/255</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/256</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/257</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/258</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/259</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/260</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/261</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/262</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/263</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/264</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/265</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/266</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/267</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/269</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/270</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/271</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/272</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/273</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/274</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/275</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/276</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/277</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/278</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/279</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/280</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/281</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/282</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/283</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/284</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/285</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/286</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/297</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/298</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/299</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/300</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/301</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/302</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/303</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/352</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/353</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/354</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/355</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/356</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/357</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/358</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/359</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/360</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/361</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/362</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/363</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/364</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/365</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/366</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/367</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/368</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/369</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/370</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/371</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/372</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/373</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/374</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/375</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/376</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/377</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/378</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/379</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/380</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/381</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/382</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/383</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/384</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/385</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/386</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/387</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/388</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/389</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/390</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/391</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/392</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/393</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/394</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/395</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/396</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/397</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/398</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/399</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/400</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/401</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/402</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/403</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/404</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/405</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/406</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/407</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/408</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="577">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1286,6 +1847,567 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -2756,7 +3878,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
@@ -4522,360 +5644,1028 @@
       <c r="B196" s="6"/>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="6"/>
+      <c r="A197" s="390" t="s">
+        <v>201</v>
+      </c>
       <c r="B197" s="6"/>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="6"/>
+      <c r="A198" s="391" t="s">
+        <v>202</v>
+      </c>
       <c r="B198" s="6"/>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="6"/>
+      <c r="A199" s="392" t="s">
+        <v>203</v>
+      </c>
       <c r="B199" s="6"/>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="6"/>
+      <c r="A200" s="393" t="s">
+        <v>204</v>
+      </c>
       <c r="B200" s="6"/>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="6"/>
+      <c r="A201" s="394" t="s">
+        <v>205</v>
+      </c>
       <c r="B201" s="6"/>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="6"/>
+      <c r="A202" s="395" t="s">
+        <v>206</v>
+      </c>
       <c r="B202" s="6"/>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="6"/>
+      <c r="A203" s="396" t="s">
+        <v>207</v>
+      </c>
       <c r="B203" s="6"/>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="6"/>
+      <c r="A204" s="397" t="s">
+        <v>208</v>
+      </c>
       <c r="B204" s="6"/>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="6"/>
+      <c r="A205" s="398" t="s">
+        <v>209</v>
+      </c>
       <c r="B205" s="6"/>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="6"/>
+      <c r="A206" s="399" t="s">
+        <v>210</v>
+      </c>
       <c r="B206" s="6"/>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="6"/>
+      <c r="A207" s="400" t="s">
+        <v>211</v>
+      </c>
       <c r="B207" s="6"/>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="6"/>
+      <c r="A208" s="401" t="s">
+        <v>212</v>
+      </c>
       <c r="B208" s="6"/>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="6"/>
+      <c r="A209" s="402" t="s">
+        <v>213</v>
+      </c>
       <c r="B209" s="6"/>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="6"/>
+      <c r="A210" s="403" t="s">
+        <v>214</v>
+      </c>
       <c r="B210" s="6"/>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="6"/>
+      <c r="A211" s="404" t="s">
+        <v>215</v>
+      </c>
       <c r="B211" s="6"/>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="6"/>
+      <c r="A212" s="405" t="s">
+        <v>216</v>
+      </c>
       <c r="B212" s="6"/>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="6"/>
+      <c r="A213" s="406" t="s">
+        <v>217</v>
+      </c>
       <c r="B213" s="6"/>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="6"/>
+      <c r="A214" s="407" t="s">
+        <v>218</v>
+      </c>
       <c r="B214" s="6"/>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="6"/>
+      <c r="A215" s="408" t="s">
+        <v>219</v>
+      </c>
       <c r="B215" s="6"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="6"/>
+      <c r="A216" s="409" t="s">
+        <v>220</v>
+      </c>
       <c r="B216" s="6"/>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="6"/>
+      <c r="A217" s="410" t="s">
+        <v>221</v>
+      </c>
       <c r="B217" s="6"/>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="6"/>
+      <c r="A218" s="411" t="s">
+        <v>222</v>
+      </c>
       <c r="B218" s="6"/>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="6"/>
+      <c r="A219" s="412" t="s">
+        <v>223</v>
+      </c>
       <c r="B219" s="6"/>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="6"/>
+      <c r="A220" s="413" t="s">
+        <v>224</v>
+      </c>
       <c r="B220" s="6"/>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="6"/>
+      <c r="A221" s="414" t="s">
+        <v>225</v>
+      </c>
       <c r="B221" s="6"/>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="6"/>
+      <c r="A222" s="415" t="s">
+        <v>226</v>
+      </c>
       <c r="B222" s="6"/>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="6"/>
+      <c r="A223" s="416" t="s">
+        <v>227</v>
+      </c>
       <c r="B223" s="6"/>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="6"/>
+      <c r="A224" s="417" t="s">
+        <v>228</v>
+      </c>
       <c r="B224" s="6"/>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="6"/>
+      <c r="A225" s="418" t="s">
+        <v>229</v>
+      </c>
       <c r="B225" s="6"/>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="6"/>
+      <c r="A226" s="419" t="s">
+        <v>230</v>
+      </c>
       <c r="B226" s="6"/>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="6"/>
+      <c r="A227" s="420" t="s">
+        <v>231</v>
+      </c>
       <c r="B227" s="6"/>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="6"/>
+      <c r="A228" s="421" t="s">
+        <v>232</v>
+      </c>
       <c r="B228" s="6"/>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="6"/>
+      <c r="A229" s="422" t="s">
+        <v>233</v>
+      </c>
       <c r="B229" s="6"/>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="6"/>
+      <c r="A230" s="423" t="s">
+        <v>234</v>
+      </c>
       <c r="B230" s="6"/>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="6"/>
+      <c r="A231" s="424" t="s">
+        <v>235</v>
+      </c>
       <c r="B231" s="6"/>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="6"/>
+      <c r="A232" s="425" t="s">
+        <v>236</v>
+      </c>
       <c r="B232" s="6"/>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="6"/>
+      <c r="A233" s="426" t="s">
+        <v>237</v>
+      </c>
       <c r="B233" s="6"/>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="6"/>
+      <c r="A234" s="427" t="s">
+        <v>238</v>
+      </c>
       <c r="B234" s="6"/>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="6"/>
+      <c r="A235" s="428" t="s">
+        <v>239</v>
+      </c>
       <c r="B235" s="6"/>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="6"/>
+      <c r="A236" s="429" t="s">
+        <v>240</v>
+      </c>
       <c r="B236" s="6"/>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="6"/>
+      <c r="A237" s="430" t="s">
+        <v>241</v>
+      </c>
       <c r="B237" s="6"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="6"/>
+      <c r="A238" s="431" t="s">
+        <v>242</v>
+      </c>
       <c r="B238" s="6"/>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="6"/>
+      <c r="A239" s="432" t="s">
+        <v>243</v>
+      </c>
       <c r="B239" s="6"/>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="6"/>
+      <c r="A240" s="433" t="s">
+        <v>244</v>
+      </c>
       <c r="B240" s="6"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="6"/>
+      <c r="A241" s="434" t="s">
+        <v>245</v>
+      </c>
       <c r="B241" s="6"/>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="6"/>
+      <c r="A242" s="435" t="s">
+        <v>246</v>
+      </c>
       <c r="B242" s="6"/>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="6"/>
+      <c r="A243" s="436" t="s">
+        <v>247</v>
+      </c>
       <c r="B243" s="6"/>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="6"/>
+      <c r="A244" s="437" t="s">
+        <v>248</v>
+      </c>
       <c r="B244" s="6"/>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="6"/>
+      <c r="A245" s="438" t="s">
+        <v>249</v>
+      </c>
       <c r="B245" s="6"/>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="6"/>
+      <c r="A246" s="439" t="s">
+        <v>250</v>
+      </c>
       <c r="B246" s="6"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="6"/>
+      <c r="A247" s="440" t="s">
+        <v>251</v>
+      </c>
       <c r="B247" s="6"/>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="6"/>
+      <c r="A248" s="441" t="s">
+        <v>252</v>
+      </c>
       <c r="B248" s="6"/>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="6"/>
+      <c r="A249" s="442" t="s">
+        <v>253</v>
+      </c>
       <c r="B249" s="6"/>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="6"/>
+      <c r="A250" s="443" t="s">
+        <v>254</v>
+      </c>
       <c r="B250" s="6"/>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="6"/>
+      <c r="A251" s="444" t="s">
+        <v>255</v>
+      </c>
       <c r="B251" s="6"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="6"/>
+      <c r="A252" s="445" t="s">
+        <v>256</v>
+      </c>
       <c r="B252" s="6"/>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="6"/>
+      <c r="A253" s="446" t="s">
+        <v>257</v>
+      </c>
       <c r="B253" s="6"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="6"/>
+      <c r="A254" s="447" t="s">
+        <v>258</v>
+      </c>
       <c r="B254" s="6"/>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="6"/>
+      <c r="A255" s="448" t="s">
+        <v>259</v>
+      </c>
       <c r="B255" s="6"/>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="6"/>
+      <c r="A256" s="449" t="s">
+        <v>260</v>
+      </c>
       <c r="B256" s="6"/>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="6"/>
+      <c r="A257" s="450" t="s">
+        <v>261</v>
+      </c>
       <c r="B257" s="6"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="6"/>
+      <c r="A258" s="451" t="s">
+        <v>262</v>
+      </c>
       <c r="B258" s="6"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="6"/>
+      <c r="A259" s="452" t="s">
+        <v>263</v>
+      </c>
       <c r="B259" s="6"/>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="6"/>
+      <c r="A260" s="453" t="s">
+        <v>264</v>
+      </c>
       <c r="B260" s="6"/>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="6"/>
+      <c r="A261" s="454" t="s">
+        <v>265</v>
+      </c>
       <c r="B261" s="6"/>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="6"/>
+      <c r="A262" s="455" t="s">
+        <v>266</v>
+      </c>
       <c r="B262" s="6"/>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="6"/>
+      <c r="A263" s="456" t="s">
+        <v>267</v>
+      </c>
       <c r="B263" s="6"/>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="6"/>
+      <c r="A264" s="457" t="s">
+        <v>268</v>
+      </c>
       <c r="B264" s="6"/>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="6"/>
+      <c r="A265" s="458" t="s">
+        <v>269</v>
+      </c>
       <c r="B265" s="6"/>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="6"/>
+      <c r="A266" s="459" t="s">
+        <v>270</v>
+      </c>
       <c r="B266" s="6"/>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="6"/>
+      <c r="A267" s="460" t="s">
+        <v>271</v>
+      </c>
       <c r="B267" s="6"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="6"/>
+      <c r="A268" s="461" t="s">
+        <v>272</v>
+      </c>
       <c r="B268" s="6"/>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="6"/>
+      <c r="A269" s="462" t="s">
+        <v>273</v>
+      </c>
       <c r="B269" s="6"/>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="6"/>
+      <c r="A270" s="463" t="s">
+        <v>274</v>
+      </c>
       <c r="B270" s="6"/>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="6"/>
+      <c r="A271" s="464" t="s">
+        <v>275</v>
+      </c>
       <c r="B271" s="6"/>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="6"/>
+      <c r="A272" s="465" t="s">
+        <v>276</v>
+      </c>
       <c r="B272" s="6"/>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="6"/>
+      <c r="A273" s="466" t="s">
+        <v>277</v>
+      </c>
       <c r="B273" s="6"/>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="6"/>
+      <c r="A274" s="467" t="s">
+        <v>278</v>
+      </c>
       <c r="B274" s="6"/>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="6"/>
+      <c r="A275" s="468" t="s">
+        <v>279</v>
+      </c>
       <c r="B275" s="6"/>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="6"/>
+      <c r="A276" s="469" t="s">
+        <v>280</v>
+      </c>
       <c r="B276" s="6"/>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="6"/>
+      <c r="A277" s="470" t="s">
+        <v>281</v>
+      </c>
       <c r="B277" s="6"/>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="6"/>
+      <c r="A278" s="471" t="s">
+        <v>282</v>
+      </c>
       <c r="B278" s="6"/>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="6"/>
+      <c r="A279" s="472" t="s">
+        <v>283</v>
+      </c>
       <c r="B279" s="6"/>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="6"/>
+      <c r="A280" s="473" t="s">
+        <v>284</v>
+      </c>
       <c r="B280" s="6"/>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="6"/>
+      <c r="A281" s="474" t="s">
+        <v>285</v>
+      </c>
       <c r="B281" s="6"/>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="6"/>
+      <c r="A282" s="475" t="s">
+        <v>286</v>
+      </c>
       <c r="B282" s="6"/>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="6"/>
+      <c r="A283" s="476" t="s">
+        <v>287</v>
+      </c>
       <c r="B283" s="6"/>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="6"/>
+      <c r="A284" s="477" t="s">
+        <v>288</v>
+      </c>
       <c r="B284" s="6"/>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="6"/>
+      <c r="A285" s="478" t="s">
+        <v>289</v>
+      </c>
       <c r="B285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="479">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="480">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="481">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="482">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="483">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="484">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="485">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="486">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="487">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="488">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="489">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="490">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="491">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="492">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="493">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="494">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="495">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="496">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="497">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="498">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="499">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="500">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="501">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="502">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="503">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="504">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="505">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="506">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="507">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="508">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="509">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="510">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="511">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="512">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="513">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="514">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="515">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="516">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="517">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="518">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="519">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="520">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="521">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="522">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="523">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="524">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="525">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="526">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="527">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="528">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="529">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="530">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="531">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="532">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="533">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="534">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="535">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="536">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="537">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="538">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="539">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="540">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="541">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="542">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="543">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="544">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="545">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="546">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="547">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="548">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="549">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="550">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="551">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="552">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="553">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="554">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="555">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="556">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="557">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="558">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="559">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="560">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="561">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="562">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="563">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="564">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="565">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="566">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="567">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="568">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="569">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="570">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="571">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="572">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="573">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="574">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="575">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="576">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="452">
   <si>
     <t>ID</t>
   </si>
@@ -1192,6 +1192,198 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/408</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/170</t>
+  </si>
+  <si>
+    <t>/samples/essay/gender-studies</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/171</t>
+  </si>
+  <si>
+    <t>/samples/essay/persuasive-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/172</t>
+  </si>
+  <si>
+    <t>/samples/essay/mba-application</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/173</t>
+  </si>
+  <si>
+    <t>/samples/essay/anthropology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/174</t>
+  </si>
+  <si>
+    <t>/samples/essay/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/175</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/health-care</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/176</t>
+  </si>
+  <si>
+    <t>/discussion-post/history</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/177</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/178</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/179</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/culture-and-society</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/180</t>
+  </si>
+  <si>
+    <t>/samples/term-paper/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/181</t>
+  </si>
+  <si>
+    <t>/samples/homework/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/182</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/183</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/gun-control</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/184</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/business-managment</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/185</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/phd</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/186</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/mla</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/187</t>
+  </si>
+  <si>
+    <t>/samples/personal-statement/medicine</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/188</t>
+  </si>
+  <si>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/189</t>
+  </si>
+  <si>
+    <t>/samples/speech/graduation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/190</t>
+  </si>
+  <si>
+    <t>/samples/speech/high-school</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/191</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/spectrophotometry-lab</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/192</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/chemistry</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/193</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/physics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/194</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/biology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/195</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/196</t>
+  </si>
+  <si>
+    <t>/samples/lesson-plan/education</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/197</t>
+  </si>
+  <si>
+    <t>/samples/nursing-plan/nursing</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/198</t>
+  </si>
+  <si>
+    <t>/samples/epq-essay/essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/199</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/200</t>
+  </si>
+  <si>
+    <t>/samples/question-answer/psychology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/213</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/224</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="577">
+  <cellXfs count="906">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1847,6 +2039,993 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -3878,7 +5057,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
@@ -3911,8 +5090,10 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="380" t="s">
+      <c r="B2" s="578" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="581" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
@@ -3922,8 +5103,10 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="382" t="s">
+      <c r="B3" s="580" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="586" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
@@ -3933,8 +5116,10 @@
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="583" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="591" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
@@ -3944,8 +5129,10 @@
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="585" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="596" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
@@ -3955,8 +5142,10 @@
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="588" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="601" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
@@ -3966,8 +5155,10 @@
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="590" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="606" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4"/>
@@ -3977,8 +5168,10 @@
       <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="593" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="611" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4"/>
@@ -3988,8 +5181,10 @@
       <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="595" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="616" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3997,8 +5192,10 @@
       <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="598" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="621" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4006,8 +5203,10 @@
       <c r="A11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="600" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="626" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4015,8 +5214,10 @@
       <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="603" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="631" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4024,8 +5225,10 @@
       <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="605" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="636" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4033,8 +5236,10 @@
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="608" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="641" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4042,8 +5247,10 @@
       <c r="A15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="610" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="646" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4051,8 +5258,10 @@
       <c r="A16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="613" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="651" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4060,8 +5269,10 @@
       <c r="A17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="615" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="656" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4069,8 +5280,10 @@
       <c r="A18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="618" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="661" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4078,8 +5291,10 @@
       <c r="A19" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="620" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="666" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4087,8 +5302,10 @@
       <c r="A20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="623" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="671" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4096,8 +5313,10 @@
       <c r="A21" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="625" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="676" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4105,8 +5324,10 @@
       <c r="A22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="628" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="681" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4114,8 +5335,10 @@
       <c r="A23" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="630" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="686" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4123,8 +5346,10 @@
       <c r="A24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="56" t="s">
+      <c r="B24" s="633" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="691" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4132,8 +5357,10 @@
       <c r="A25" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="635" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="696" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4141,8 +5368,10 @@
       <c r="A26" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="638" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="701" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4150,8 +5379,10 @@
       <c r="A27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="640" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="706" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4159,8 +5390,10 @@
       <c r="A28" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="64" t="s">
+      <c r="B28" s="643" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="711" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4168,8 +5401,10 @@
       <c r="A29" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="66" t="s">
+      <c r="B29" s="645" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="716" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4177,8 +5412,10 @@
       <c r="A30" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="648" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" s="721" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4186,8 +5423,10 @@
       <c r="A31" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="650" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="726" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4195,8 +5434,10 @@
       <c r="A32" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="72" t="s">
+      <c r="B32" s="653" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="731" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4204,7 +5445,9 @@
       <c r="A33" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="655" t="s">
+        <v>419</v>
+      </c>
       <c r="C33" t="s" s="74">
         <v>5</v>
       </c>
@@ -4213,7 +5456,9 @@
       <c r="A34" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="658" t="s">
+        <v>421</v>
+      </c>
       <c r="C34" t="s" s="76">
         <v>5</v>
       </c>
@@ -4222,7 +5467,9 @@
       <c r="A35" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="660" t="s">
+        <v>421</v>
+      </c>
       <c r="C35" t="s" s="78">
         <v>5</v>
       </c>
@@ -4231,7 +5478,9 @@
       <c r="A36" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="663" t="s">
+        <v>423</v>
+      </c>
       <c r="C36" t="s" s="80">
         <v>5</v>
       </c>
@@ -4240,7 +5489,9 @@
       <c r="A37" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="665" t="s">
+        <v>423</v>
+      </c>
       <c r="C37" t="s" s="82">
         <v>5</v>
       </c>
@@ -4249,7 +5500,9 @@
       <c r="A38" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="668" t="s">
+        <v>425</v>
+      </c>
       <c r="C38" t="s" s="84">
         <v>5</v>
       </c>
@@ -4258,7 +5511,9 @@
       <c r="A39" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="670" t="s">
+        <v>425</v>
+      </c>
       <c r="C39" t="s" s="86">
         <v>5</v>
       </c>
@@ -4267,7 +5522,9 @@
       <c r="A40" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="673" t="s">
+        <v>427</v>
+      </c>
       <c r="C40" t="s" s="88">
         <v>5</v>
       </c>
@@ -4276,7 +5533,9 @@
       <c r="A41" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="675" t="s">
+        <v>427</v>
+      </c>
       <c r="C41" t="s" s="90">
         <v>5</v>
       </c>
@@ -4285,7 +5544,9 @@
       <c r="A42" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="678" t="s">
+        <v>429</v>
+      </c>
       <c r="C42" t="s" s="92">
         <v>5</v>
       </c>
@@ -4294,7 +5555,9 @@
       <c r="A43" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="680" t="s">
+        <v>429</v>
+      </c>
       <c r="C43" t="s" s="94">
         <v>5</v>
       </c>
@@ -4303,7 +5566,9 @@
       <c r="A44" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="683" t="s">
+        <v>431</v>
+      </c>
       <c r="C44" t="s" s="96">
         <v>5</v>
       </c>
@@ -4312,7 +5577,9 @@
       <c r="A45" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="685" t="s">
+        <v>431</v>
+      </c>
       <c r="C45" t="s" s="98">
         <v>5</v>
       </c>
@@ -4321,7 +5588,9 @@
       <c r="A46" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="688" t="s">
+        <v>433</v>
+      </c>
       <c r="C46" t="s" s="100">
         <v>5</v>
       </c>
@@ -4330,7 +5599,9 @@
       <c r="A47" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="690" t="s">
+        <v>433</v>
+      </c>
       <c r="C47" t="s" s="102">
         <v>5</v>
       </c>
@@ -4339,7 +5610,9 @@
       <c r="A48" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="693" t="s">
+        <v>435</v>
+      </c>
       <c r="C48" t="s" s="104">
         <v>5</v>
       </c>
@@ -4348,7 +5621,9 @@
       <c r="A49" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="695" t="s">
+        <v>435</v>
+      </c>
       <c r="C49" t="s" s="106">
         <v>5</v>
       </c>
@@ -4357,7 +5632,9 @@
       <c r="A50" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="698" t="s">
+        <v>437</v>
+      </c>
       <c r="C50" t="s" s="108">
         <v>5</v>
       </c>
@@ -4366,7 +5643,9 @@
       <c r="A51" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="700" t="s">
+        <v>437</v>
+      </c>
       <c r="C51" t="s" s="110">
         <v>5</v>
       </c>
@@ -4375,7 +5654,9 @@
       <c r="A52" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="703" t="s">
+        <v>439</v>
+      </c>
       <c r="C52" t="s" s="112">
         <v>5</v>
       </c>
@@ -4384,7 +5665,9 @@
       <c r="A53" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="705" t="s">
+        <v>439</v>
+      </c>
       <c r="C53" t="s" s="114">
         <v>5</v>
       </c>
@@ -4393,7 +5676,9 @@
       <c r="A54" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="708" t="s">
+        <v>441</v>
+      </c>
       <c r="C54" t="s" s="116">
         <v>5</v>
       </c>
@@ -4402,7 +5687,9 @@
       <c r="A55" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="710" t="s">
+        <v>441</v>
+      </c>
       <c r="C55" t="s" s="118">
         <v>5</v>
       </c>
@@ -4411,7 +5698,9 @@
       <c r="A56" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="713" t="s">
+        <v>443</v>
+      </c>
       <c r="C56" t="s" s="120">
         <v>5</v>
       </c>
@@ -4420,7 +5709,9 @@
       <c r="A57" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="715" t="s">
+        <v>443</v>
+      </c>
       <c r="C57" t="s" s="122">
         <v>5</v>
       </c>
@@ -4429,7 +5720,9 @@
       <c r="A58" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="718" t="s">
+        <v>445</v>
+      </c>
       <c r="C58" t="s" s="124">
         <v>5</v>
       </c>
@@ -4438,7 +5731,9 @@
       <c r="A59" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="720" t="s">
+        <v>445</v>
+      </c>
       <c r="C59" t="s" s="126">
         <v>5</v>
       </c>
@@ -4447,7 +5742,9 @@
       <c r="A60" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="723" t="s">
+        <v>447</v>
+      </c>
       <c r="C60" t="s" s="128">
         <v>5</v>
       </c>
@@ -4456,7 +5753,9 @@
       <c r="A61" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="725" t="s">
+        <v>447</v>
+      </c>
       <c r="C61" t="s" s="130">
         <v>5</v>
       </c>
@@ -4465,7 +5764,9 @@
       <c r="A62" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="728" t="s">
+        <v>449</v>
+      </c>
       <c r="C62" t="s" s="132">
         <v>5</v>
       </c>
@@ -4474,7 +5775,9 @@
       <c r="A63" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="730" t="s">
+        <v>449</v>
+      </c>
       <c r="C63" t="s" s="134">
         <v>5</v>
       </c>
@@ -6665,6 +7968,1186 @@
     <row r="383">
       <c r="A383" t="s" s="576">
         <v>387</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="577">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="579">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="582">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="584">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="587">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="589">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="592">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="594">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="597">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="599">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="602">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="604">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="607">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="609">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="612">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="614">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="617">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="619">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="622">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="624">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="627">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="629">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="632">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="634">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="637">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="639">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="642">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="644">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="647">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="649">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="652">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="654">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="657">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="659">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="662">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="664">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="667">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="669">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="672">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="674">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="677">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="679">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="682">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="684">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="687">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="689">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="692">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="694">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="697">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="699">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="702">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="704">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="707">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="709">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="712">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="714">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="717">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="719">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="722">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="724">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="727">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="729">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="732">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="733">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="734">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="735">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="736">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="737">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="738">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="739">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="740">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="741">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="742">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="743">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="744">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="745">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="746">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="747">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="748">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="749">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="750">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="751">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="752">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="753">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="754">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="755">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="756">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="757">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="758">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="759">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="760">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="761">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="762">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="763">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="764">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="765">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="766">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="767">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="768">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="769">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="770">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="771">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="772">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="773">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="774">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="775">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="776">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="777">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="778">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="779">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="780">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="781">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="782">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="783">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="784">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="785">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="786">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="787">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="788">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="789">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="790">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="791">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="792">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="793">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="794">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="795">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="796">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="797">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="798">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="799">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="800">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="801">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="802">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="803">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="804">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="805">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="806">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="807">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="808">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="809">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="810">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="811">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="812">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="813">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="814">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="815">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="816">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="817">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="818">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="819">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="820">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="821">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="822">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="823">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="824">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="825">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="826">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="827">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="828">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="829">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="830">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="831">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="832">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="833">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="834">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="835">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="836">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="837">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="838">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="839">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="840">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="841">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="842">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="843">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="844">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="845">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="846">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="847">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="848">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="849">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="850">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="851">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="852">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="853">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="854">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="855">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="856">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="857">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="858">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="859">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="860">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="861">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="862">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="863">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="864">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="865">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="866">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="867">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="868">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="869">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="870">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="871">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="872">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="873">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="874">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="875">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="876">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="877">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="878">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="879">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="880">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="881">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="882">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="883">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="884">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="885">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="886">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="887">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="888">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="889">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="890">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="891">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="892">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="893">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="894">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="895">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="896">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="897">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="898">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="899">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="900">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="901">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="902">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="903">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="904">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="905">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="489">
   <si>
     <t>ID</t>
   </si>
@@ -1384,6 +1384,117 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/224</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/constants/create</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/201</t>
+  </si>
+  <si>
+    <t>/samples/ib/trade-protectionism</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/202</t>
+  </si>
+  <si>
+    <t>/samples/ib/how-does-the-tension-affect-the-frequency-of-standing-wave</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/203</t>
+  </si>
+  <si>
+    <t>/samples/ib/do-we-need-custodians-of-knowledge</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/204</t>
+  </si>
+  <si>
+    <t>/samples/ib/physics-hl-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/205</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-aa-hl</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/206</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-essay-2023</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/207</t>
+  </si>
+  <si>
+    <t>/samples/ib/bio-ee</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/208</t>
+  </si>
+  <si>
+    <t>/samples/ib/business-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/209</t>
+  </si>
+  <si>
+    <t>/samples/ib/high-school-math-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/210</t>
+  </si>
+  <si>
+    <t>/samples/ib/november-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/211</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-sl-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/212</t>
+  </si>
+  <si>
+    <t>/samples/ib/microeconomics-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/213</t>
+  </si>
+  <si>
+    <t>/samples/ib/may-2023-tok-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/214</t>
+  </si>
+  <si>
+    <t>/samples/ib/math-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/215</t>
+  </si>
+  <si>
+    <t>/samples/ib/history-ia</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/216</t>
+  </si>
+  <si>
+    <t>/samples/ib/extended-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/217</t>
+  </si>
+  <si>
+    <t>/samples/ib/tok-exhibition-level</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/173</t>
+  </si>
+  <si>
+    <t>/samples</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="906">
+  <cellXfs count="995">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2039,6 +2150,273 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -5057,7 +5435,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E619"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
@@ -5093,7 +5471,7 @@
       <c r="B2" s="578" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="581" t="s">
+      <c r="C2" s="912" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
@@ -5106,7 +5484,7 @@
       <c r="B3" s="580" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="586" t="s">
+      <c r="C3" s="917" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
@@ -5119,7 +5497,7 @@
       <c r="B4" s="583" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="591" t="s">
+      <c r="C4" s="922" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
@@ -5132,7 +5510,7 @@
       <c r="B5" s="585" t="s">
         <v>391</v>
       </c>
-      <c r="C5" s="596" t="s">
+      <c r="C5" s="927" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
@@ -5145,7 +5523,7 @@
       <c r="B6" s="588" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="601" t="s">
+      <c r="C6" s="932" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
@@ -5158,7 +5536,7 @@
       <c r="B7" s="590" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="606" t="s">
+      <c r="C7" s="937" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4"/>
@@ -5171,7 +5549,7 @@
       <c r="B8" s="593" t="s">
         <v>395</v>
       </c>
-      <c r="C8" s="611" t="s">
+      <c r="C8" s="942" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4"/>
@@ -5184,7 +5562,7 @@
       <c r="B9" s="595" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="616" t="s">
+      <c r="C9" s="947" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5195,7 +5573,7 @@
       <c r="B10" s="598" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="621" t="s">
+      <c r="C10" s="952" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5206,7 +5584,7 @@
       <c r="B11" s="600" t="s">
         <v>397</v>
       </c>
-      <c r="C11" s="626" t="s">
+      <c r="C11" s="957" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5217,7 +5595,7 @@
       <c r="B12" s="603" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="631" t="s">
+      <c r="C12" s="962" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5228,7 +5606,7 @@
       <c r="B13" s="605" t="s">
         <v>399</v>
       </c>
-      <c r="C13" s="636" t="s">
+      <c r="C13" s="967" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5239,7 +5617,7 @@
       <c r="B14" s="608" t="s">
         <v>401</v>
       </c>
-      <c r="C14" s="641" t="s">
+      <c r="C14" s="972" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5250,7 +5628,7 @@
       <c r="B15" s="610" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="646" t="s">
+      <c r="C15" s="977" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5261,7 +5639,7 @@
       <c r="B16" s="613" t="s">
         <v>403</v>
       </c>
-      <c r="C16" s="651" t="s">
+      <c r="C16" s="982" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5272,7 +5650,7 @@
       <c r="B17" s="615" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="656" t="s">
+      <c r="C17" s="987" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5283,7 +5661,7 @@
       <c r="B18" s="618" t="s">
         <v>405</v>
       </c>
-      <c r="C18" s="661" t="s">
+      <c r="C18" s="992" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5786,7 +6164,9 @@
       <c r="A64" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="909" t="s">
+        <v>454</v>
+      </c>
       <c r="C64" t="s" s="136">
         <v>5</v>
       </c>
@@ -5795,7 +6175,9 @@
       <c r="A65" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="911" t="s">
+        <v>454</v>
+      </c>
       <c r="C65" t="s" s="138">
         <v>5</v>
       </c>
@@ -5804,7 +6186,9 @@
       <c r="A66" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="914" t="s">
+        <v>456</v>
+      </c>
       <c r="C66" t="s" s="140">
         <v>5</v>
       </c>
@@ -5813,7 +6197,9 @@
       <c r="A67" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="916" t="s">
+        <v>456</v>
+      </c>
       <c r="C67" t="s" s="142">
         <v>5</v>
       </c>
@@ -5822,7 +6208,9 @@
       <c r="A68" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="919" t="s">
+        <v>458</v>
+      </c>
       <c r="C68" t="s" s="144">
         <v>5</v>
       </c>
@@ -5831,7 +6219,9 @@
       <c r="A69" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="921" t="s">
+        <v>458</v>
+      </c>
       <c r="C69" t="s" s="146">
         <v>5</v>
       </c>
@@ -5840,7 +6230,9 @@
       <c r="A70" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="924" t="s">
+        <v>460</v>
+      </c>
       <c r="C70" t="s" s="148">
         <v>5</v>
       </c>
@@ -5849,7 +6241,9 @@
       <c r="A71" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="926" t="s">
+        <v>460</v>
+      </c>
       <c r="C71" t="s" s="150">
         <v>5</v>
       </c>
@@ -5858,7 +6252,9 @@
       <c r="A72" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="929" t="s">
+        <v>462</v>
+      </c>
       <c r="C72" t="s" s="152">
         <v>5</v>
       </c>
@@ -5867,7 +6263,9 @@
       <c r="A73" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="931" t="s">
+        <v>462</v>
+      </c>
       <c r="C73" t="s" s="154">
         <v>5</v>
       </c>
@@ -5876,7 +6274,9 @@
       <c r="A74" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="934" t="s">
+        <v>464</v>
+      </c>
       <c r="C74" t="s" s="156">
         <v>5</v>
       </c>
@@ -5885,7 +6285,9 @@
       <c r="A75" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="936" t="s">
+        <v>464</v>
+      </c>
       <c r="C75" t="s" s="158">
         <v>5</v>
       </c>
@@ -5894,7 +6296,9 @@
       <c r="A76" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="939" t="s">
+        <v>466</v>
+      </c>
       <c r="C76" t="s" s="160">
         <v>5</v>
       </c>
@@ -5903,7 +6307,9 @@
       <c r="A77" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="941" t="s">
+        <v>466</v>
+      </c>
       <c r="C77" t="s" s="162">
         <v>5</v>
       </c>
@@ -5912,7 +6318,9 @@
       <c r="A78" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="944" t="s">
+        <v>468</v>
+      </c>
       <c r="C78" t="s" s="164">
         <v>5</v>
       </c>
@@ -5921,7 +6329,9 @@
       <c r="A79" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="946" t="s">
+        <v>468</v>
+      </c>
       <c r="C79" t="s" s="166">
         <v>5</v>
       </c>
@@ -5930,7 +6340,9 @@
       <c r="A80" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="949" t="s">
+        <v>470</v>
+      </c>
       <c r="C80" t="s" s="168">
         <v>5</v>
       </c>
@@ -5939,7 +6351,9 @@
       <c r="A81" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="951" t="s">
+        <v>470</v>
+      </c>
       <c r="C81" t="s" s="170">
         <v>5</v>
       </c>
@@ -5948,7 +6362,9 @@
       <c r="A82" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="954" t="s">
+        <v>472</v>
+      </c>
       <c r="C82" t="s" s="172">
         <v>5</v>
       </c>
@@ -5957,7 +6373,9 @@
       <c r="A83" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="956" t="s">
+        <v>472</v>
+      </c>
       <c r="C83" t="s" s="174">
         <v>5</v>
       </c>
@@ -5966,7 +6384,9 @@
       <c r="A84" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="959" t="s">
+        <v>474</v>
+      </c>
       <c r="C84" t="s" s="176">
         <v>5</v>
       </c>
@@ -5975,7 +6395,9 @@
       <c r="A85" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="961" t="s">
+        <v>474</v>
+      </c>
       <c r="C85" t="s" s="178">
         <v>5</v>
       </c>
@@ -5984,7 +6406,9 @@
       <c r="A86" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="964" t="s">
+        <v>476</v>
+      </c>
       <c r="C86" t="s" s="180">
         <v>5</v>
       </c>
@@ -5993,7 +6417,9 @@
       <c r="A87" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="966" t="s">
+        <v>476</v>
+      </c>
       <c r="C87" t="s" s="182">
         <v>5</v>
       </c>
@@ -6002,7 +6428,9 @@
       <c r="A88" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="969" t="s">
+        <v>478</v>
+      </c>
       <c r="C88" t="s" s="184">
         <v>5</v>
       </c>
@@ -6011,7 +6439,9 @@
       <c r="A89" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="971" t="s">
+        <v>478</v>
+      </c>
       <c r="C89" t="s" s="186">
         <v>5</v>
       </c>
@@ -6020,7 +6450,9 @@
       <c r="A90" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="974" t="s">
+        <v>480</v>
+      </c>
       <c r="C90" t="s" s="188">
         <v>5</v>
       </c>
@@ -6029,7 +6461,9 @@
       <c r="A91" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="976" t="s">
+        <v>480</v>
+      </c>
       <c r="C91" t="s" s="190">
         <v>5</v>
       </c>
@@ -6038,7 +6472,9 @@
       <c r="A92" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="979" t="s">
+        <v>482</v>
+      </c>
       <c r="C92" t="s" s="192">
         <v>5</v>
       </c>
@@ -6047,7 +6483,9 @@
       <c r="A93" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="981" t="s">
+        <v>482</v>
+      </c>
       <c r="C93" t="s" s="194">
         <v>5</v>
       </c>
@@ -6056,7 +6494,9 @@
       <c r="A94" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="984" t="s">
+        <v>484</v>
+      </c>
       <c r="C94" t="s" s="196">
         <v>5</v>
       </c>
@@ -6065,7 +6505,9 @@
       <c r="A95" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="986" t="s">
+        <v>484</v>
+      </c>
       <c r="C95" t="s" s="198">
         <v>5</v>
       </c>
@@ -6074,7 +6516,9 @@
       <c r="A96" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="989" t="s">
+        <v>486</v>
+      </c>
       <c r="C96" t="s" s="200">
         <v>5</v>
       </c>
@@ -6083,7 +6527,9 @@
       <c r="A97" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="991" t="s">
+        <v>486</v>
+      </c>
       <c r="C97" t="s" s="202">
         <v>5</v>
       </c>
@@ -6092,7 +6538,9 @@
       <c r="A98" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="994" t="s">
+        <v>488</v>
+      </c>
       <c r="C98" t="s" s="204">
         <v>5</v>
       </c>
@@ -9148,6 +9596,191 @@
     <row r="619">
       <c r="A619" t="s" s="905">
         <v>288</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="906">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="907">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="908">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="910">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="913">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="915">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="918">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="920">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="923">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="925">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="928">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="930">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="933">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="935">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="938">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="940">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="943">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="945">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="948">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="950">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="953">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="955">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="958">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="960">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="963">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="965">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="968">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="970">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="973">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="975">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="978">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="980">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="983">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="985">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="988">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="990">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="993">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="410">
   <si>
     <t>ID</t>
   </si>
@@ -45,115 +45,1216 @@
     <t>status</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/202</t>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/243</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/244</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/constants/all</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/constants/store</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/245</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/246</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/247</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/248</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/249</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/250</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/251</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/252</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/253</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/254</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/255</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/256</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/257</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/258</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/259</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/260</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/261</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/262</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/263</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/264</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/265</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/266</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/267</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/269</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/270</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/271</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/272</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/273</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/274</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/275</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/276</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/277</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/278</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/279</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/280</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/281</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/282</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/283</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/284</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/285</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/286</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/352</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/297</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/353</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/298</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/354</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/299</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/355</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/300</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/356</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/301</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/357</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/302</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/358</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/303</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/359</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/360</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/361</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/362</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/363</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/364</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/365</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/366</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/367</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/368</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/369</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/370</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/371</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/372</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/373</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/374</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/375</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/376</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/377</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/378</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/379</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/380</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/381</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/382</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/383</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/384</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/385</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/386</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/387</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/388</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/389</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/390</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/391</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/392</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/393</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/394</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/395</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/396</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/397</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/398</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/399</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/400</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/401</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/402</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/351</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/403</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/352</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/404</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/353</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/405</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/354</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/355</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/406</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/356</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/407</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/357</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/408</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/358</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/409</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/359</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/410</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/360</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/411</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/361</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/362</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/412</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/363</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/413</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/364</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/414</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/365</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/415</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/366</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/416</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/367</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/417</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/368</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/418</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/369</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/419</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/370</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/371</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/420</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/372</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/421</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/373</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/422</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/374</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/423</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/375</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/424</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/376</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/425</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/377</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/426</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/378</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/427</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/379</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/428</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/380</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/429</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/381</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/430</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/382</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/431</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/383</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/384</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/432</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/385</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/433</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/386</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/434</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/387</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/435</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/388</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/436</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/389</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/437</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/390</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/438</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/391</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/439</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/392</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/440</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/393</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/441</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/394</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/442</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/395</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/396</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/443</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/397</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/444</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/398</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/445</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/399</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/446</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/400</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/447</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/401</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/448</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/402</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/449</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/403</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/404</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/450</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/405</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/451</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/406</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/452</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/407</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/453</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/408</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/454</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/409</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/455</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/410</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/456</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/411</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/412</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/457</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/413</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/458</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/414</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/459</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/415</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/460</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/416</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/461</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/417</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/418</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/462</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/419</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/463</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/420</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/464</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/421</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/465</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/422</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/466</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/423</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/467</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/424</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/468</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/425</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/469</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/426</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/470</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/471</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/472</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/473</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/474</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/475</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/476</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/477</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/478</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/479</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/480</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/481</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/482</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/483</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/484</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/485</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/486</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/487</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/222</t>
   </si>
   <si>
     <t>/samples/ib/trade-protectionism</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/203</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/204</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/205</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/223</t>
   </si>
   <si>
     <t>/samples/ib/how-does-the-tension-affect-the-frequency-of-standing-wave</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/206</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/224</t>
   </si>
   <si>
     <t>/samples/ib/do-we-need-custodians-of-knowledge</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/207</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/225</t>
   </si>
   <si>
     <t>/samples/ib/physics-hl-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/208</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/226</t>
   </si>
   <si>
     <t>/samples/ib/math-aa-hl</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/209</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/227</t>
   </si>
   <si>
     <t>/samples/ib/tok-essay-2023</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/210</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/228</t>
   </si>
   <si>
     <t>/samples/ib/bio-ee</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/211</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/229</t>
   </si>
   <si>
     <t>/samples/ib/business-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/212</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/230</t>
   </si>
   <si>
     <t>/samples/ib/high-school-math-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/213</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/231</t>
   </si>
   <si>
     <t>/samples/ib/november-2023-tok-essay</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/214</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/232</t>
   </si>
   <si>
     <t>/samples/ib/math-sl-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/215</t>
-  </si>
-  <si>
-    <t>/samples/ib/microeconomics-ia</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/216</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/233</t>
   </si>
   <si>
     <t>/samples/ib/may-2023-tok-essay</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/217</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/234</t>
   </si>
   <si>
     <t>/samples/ib/math-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/218</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/235</t>
   </si>
   <si>
     <t>/samples/ib/history-ia</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/219</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/236</t>
   </si>
   <si>
     <t>/samples/ib/extended-essay</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/220</t>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/237</t>
   </si>
   <si>
     <t>/samples/ib/tok-exhibition-level</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/179</t>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/182</t>
   </si>
   <si>
     <t>/samples</t>
@@ -800,9 +1901,1776 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="631">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,10 +4110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1271,164 +4139,2675 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="B2" s="598" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="6">
+      <c r="B3" s="600" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="8">
+      <c r="B4" s="602" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="604" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" t="s" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="606" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="10">
+      <c r="B7" s="608" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B8" s="610" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="612" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" t="s" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="12">
+      <c r="B10" s="614" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B11" s="616" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" t="s" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="618" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s" s="76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="620" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" t="s" s="79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="14">
+      <c r="B14" s="622" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="624" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" t="s" s="84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="626" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" t="s" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="B17" s="628" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" t="s" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="630" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s" s="93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="16">
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="17">
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="33">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="35">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="36">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="18">
+      <c r="C24" t="s" s="110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="38">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s" s="113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="40">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s" s="116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="41">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="C27" t="s" s="119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="42">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s" s="122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="44">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s" s="125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="45">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="20">
+      <c r="C30" t="s" s="128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="47">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s" s="131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="49">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s" s="133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="50">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="21">
+      <c r="C33" t="s" s="136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="51">
         <v>22</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="22">
+      <c r="C34" t="s" s="139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s" s="142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="55">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s" s="145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="56">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="23">
+      <c r="C37" t="s" s="148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="57">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s" s="151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="59">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s" s="154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="60">
         <v>24</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="24">
+      <c r="C40" t="s" s="157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="62">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s" s="160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="64">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s" s="163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="65">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="25">
+      <c r="C43" t="s" s="166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="66">
         <v>26</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="26">
+      <c r="C44" t="s" s="169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s" s="171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="70">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s" s="174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="71">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="27">
+      <c r="C47" t="s" s="177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="72">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s" s="180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="74">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s" s="183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="75">
         <v>28</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="28">
+      <c r="C50" t="s" s="186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="77">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="29">
+      <c r="C51" t="s" s="189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="78">
         <v>30</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="30">
+      <c r="C52" t="s" s="192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="80">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="31">
+      <c r="C53" t="s" s="195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="81">
         <v>32</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="32">
+      <c r="C54" t="s" s="197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="33">
+      <c r="C55" t="s" s="200">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="85">
         <v>34</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="34">
+      <c r="C56" t="s" s="203">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="86">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="35">
+      <c r="C57" t="s" s="206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="88">
         <v>36</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="36">
+      <c r="C58" t="s" s="209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="89">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="37">
+      <c r="C59" t="s" s="212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="91">
         <v>38</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="38">
+      <c r="C60" t="s" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="92">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="39">
+      <c r="C61" t="s" s="218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="94">
         <v>40</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="40">
+      <c r="C62" t="s" s="221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="95">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="41">
+      <c r="C63" t="s" s="224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="97">
         <v>42</v>
+      </c>
+      <c r="C64" t="s" s="227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="98">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s" s="230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="100">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s" s="233">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="101">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s" s="236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="103">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s" s="238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="104">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s" s="241">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="106">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s" s="244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="108">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s" s="247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s" s="250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="111">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s" s="253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="112">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s" s="256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="114">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s" s="259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="115">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s" s="262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="117">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s" s="265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="118">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s" s="268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="120">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s" s="271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="121">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s" s="274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="123">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s" s="276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="124">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s" s="279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="126">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s" s="282">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s" s="285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="129">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s" s="288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="130">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s" s="291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="132">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s" s="294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="134">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s" s="297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="135">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s" s="300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="137">
+        <v>68</v>
+      </c>
+      <c r="C90" t="s" s="303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="138">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s" s="305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="140">
+        <v>70</v>
+      </c>
+      <c r="C92" t="s" s="308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="141">
+        <v>71</v>
+      </c>
+      <c r="C93" t="s" s="311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="143">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s" s="314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="144">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s" s="317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="146">
+        <v>74</v>
+      </c>
+      <c r="C96" t="s" s="320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="147">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s" s="323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="149">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s" s="326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="150">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s" s="329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="152">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s" s="332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="153">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s" s="335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="155">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s" s="338">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="156">
+        <v>81</v>
+      </c>
+      <c r="C103" t="s" s="341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="158">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s" s="343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="159">
+        <v>83</v>
+      </c>
+      <c r="C105" t="s" s="346">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="161">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s" s="349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="162">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s" s="352">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="164">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s" s="355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="165">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s" s="358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="167">
+        <v>88</v>
+      </c>
+      <c r="C110" t="s" s="361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="168">
+        <v>89</v>
+      </c>
+      <c r="C111" t="s" s="364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="170">
+        <v>90</v>
+      </c>
+      <c r="C112" t="s" s="367">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="172">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s" s="370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="173">
+        <v>92</v>
+      </c>
+      <c r="C114" t="s" s="372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="175">
+        <v>93</v>
+      </c>
+      <c r="C115" t="s" s="375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="176">
+        <v>94</v>
+      </c>
+      <c r="C116" t="s" s="378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="178">
+        <v>95</v>
+      </c>
+      <c r="C117" t="s" s="381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="179">
+        <v>96</v>
+      </c>
+      <c r="C118" t="s" s="384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="181">
+        <v>97</v>
+      </c>
+      <c r="C119" t="s" s="387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="182">
+        <v>98</v>
+      </c>
+      <c r="C120" t="s" s="390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="184">
+        <v>99</v>
+      </c>
+      <c r="C121" t="s" s="392">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="185">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s" s="395">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="187">
+        <v>101</v>
+      </c>
+      <c r="C123" t="s" s="398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="188">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s" s="401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="190">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s" s="404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="191">
+        <v>104</v>
+      </c>
+      <c r="C126" t="s" s="407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="193">
+        <v>105</v>
+      </c>
+      <c r="C127" t="s" s="410">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="194">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s" s="413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="196">
+        <v>107</v>
+      </c>
+      <c r="C129" t="s" s="416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="198">
+        <v>108</v>
+      </c>
+      <c r="C130" t="s" s="418">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="199">
+        <v>109</v>
+      </c>
+      <c r="C131" t="s" s="421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="201">
+        <v>110</v>
+      </c>
+      <c r="C132" t="s" s="424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="202">
+        <v>111</v>
+      </c>
+      <c r="C133" t="s" s="427">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="204">
+        <v>112</v>
+      </c>
+      <c r="C134" t="s" s="430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="205">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s" s="433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="207">
+        <v>114</v>
+      </c>
+      <c r="C136" t="s" s="436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="208">
+        <v>115</v>
+      </c>
+      <c r="C137" t="s" s="439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="210">
+        <v>116</v>
+      </c>
+      <c r="C138" t="s" s="442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="211">
+        <v>117</v>
+      </c>
+      <c r="C139" t="s" s="445">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="213">
+        <v>118</v>
+      </c>
+      <c r="C140" t="s" s="448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="214">
+        <v>119</v>
+      </c>
+      <c r="C141" t="s" s="451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="216">
+        <v>120</v>
+      </c>
+      <c r="C142" t="s" s="454">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="217">
+        <v>121</v>
+      </c>
+      <c r="C143" t="s" s="456">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="219">
+        <v>122</v>
+      </c>
+      <c r="C144" t="s" s="459">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="220">
+        <v>123</v>
+      </c>
+      <c r="C145" t="s" s="462">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="222">
+        <v>124</v>
+      </c>
+      <c r="C146" t="s" s="465">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="223">
+        <v>125</v>
+      </c>
+      <c r="C147" t="s" s="468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="225">
+        <v>126</v>
+      </c>
+      <c r="C148" t="s" s="471">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="226">
+        <v>127</v>
+      </c>
+      <c r="C149" t="s" s="474">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="228">
+        <v>128</v>
+      </c>
+      <c r="C150" t="s" s="477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="229">
+        <v>129</v>
+      </c>
+      <c r="C151" t="s" s="480">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="231">
+        <v>130</v>
+      </c>
+      <c r="C152" t="s" s="483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="232">
+        <v>131</v>
+      </c>
+      <c r="C153" t="s" s="486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="234">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s" s="489">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="235">
+        <v>133</v>
+      </c>
+      <c r="C155" t="s" s="491">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="237">
+        <v>134</v>
+      </c>
+      <c r="C156" t="s" s="494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="239">
+        <v>135</v>
+      </c>
+      <c r="C157" t="s" s="497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="240">
+        <v>136</v>
+      </c>
+      <c r="C158" t="s" s="500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="242">
+        <v>137</v>
+      </c>
+      <c r="C159" t="s" s="503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="243">
+        <v>138</v>
+      </c>
+      <c r="C160" t="s" s="506">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="245">
+        <v>139</v>
+      </c>
+      <c r="C161" t="s" s="509">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="246">
+        <v>140</v>
+      </c>
+      <c r="C162" t="s" s="512">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="248">
+        <v>141</v>
+      </c>
+      <c r="C163" t="s" s="514">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="249">
+        <v>142</v>
+      </c>
+      <c r="C164" t="s" s="517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="251">
+        <v>143</v>
+      </c>
+      <c r="C165" t="s" s="520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="252">
+        <v>144</v>
+      </c>
+      <c r="C166" t="s" s="523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="254">
+        <v>145</v>
+      </c>
+      <c r="C167" t="s" s="526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="255">
+        <v>146</v>
+      </c>
+      <c r="C168" t="s" s="529">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="257">
+        <v>147</v>
+      </c>
+      <c r="C169" t="s" s="532">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="258">
+        <v>148</v>
+      </c>
+      <c r="C170" t="s" s="535">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="260">
+        <v>149</v>
+      </c>
+      <c r="C171" t="s" s="537">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="261">
+        <v>150</v>
+      </c>
+      <c r="C172" t="s" s="540">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="263">
+        <v>151</v>
+      </c>
+      <c r="C173" t="s" s="543">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="264">
+        <v>152</v>
+      </c>
+      <c r="C174" t="s" s="546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="266">
+        <v>153</v>
+      </c>
+      <c r="C175" t="s" s="549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="267">
+        <v>154</v>
+      </c>
+      <c r="C176" t="s" s="552">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="269">
+        <v>155</v>
+      </c>
+      <c r="C177" t="s" s="554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="270">
+        <v>156</v>
+      </c>
+      <c r="C178" t="s" s="557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="272">
+        <v>157</v>
+      </c>
+      <c r="C179" t="s" s="560">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="273">
+        <v>158</v>
+      </c>
+      <c r="C180" t="s" s="563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="275">
+        <v>159</v>
+      </c>
+      <c r="C181" t="s" s="566">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="277">
+        <v>160</v>
+      </c>
+      <c r="C182" t="s" s="569">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="278">
+        <v>161</v>
+      </c>
+      <c r="C183" t="s" s="572">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="280">
+        <v>162</v>
+      </c>
+      <c r="C184" t="s" s="575">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="281">
+        <v>163</v>
+      </c>
+      <c r="C185" t="s" s="578">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="283">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="284">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="286">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="287">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="289">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="290">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="292">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="293">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="295">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="296">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="298">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="299">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="301">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="302">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="304">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="306">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="307">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="309">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="310">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="312">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="313">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="315">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="316">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="318">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="319">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="321">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="322">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="324">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="325">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="327">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="328">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="330">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="331">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="333">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="334">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="336">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="337">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="339">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="340">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="342">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="344">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="345">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="347">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="348">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="350">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="351">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="353">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="354">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="356">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="357">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="359">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="360">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="362">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="363">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="365">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="366">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="368">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="369">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="371">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="373">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="374">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="376">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="377">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="379">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="380">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="382">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="383">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="385">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="386">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="388">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="389">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="391">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="393">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="394">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="396">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="397">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="399">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="400">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="402">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="403">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="405">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="406">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="408">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="409">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="411">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="412">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="414">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="415">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="417">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="419">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="420">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="422">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="423">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="425">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="426">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="428">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="429">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="431">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="432">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="434">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="435">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="437">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="438">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="440">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="441">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="443">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="444">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="446">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="447">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="449">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="450">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="452">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="453">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="455">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="457">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="458">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="460">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="461">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="463">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="464">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="466">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="467">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="469">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="470">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="472">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="473">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="475">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="476">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="478">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="479">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="481">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="482">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="484">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="485">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="487">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="488">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="490">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="492">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="493">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="495">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="496">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="498">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="499">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="501">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="502">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="504">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="505">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="507">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="508">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="510">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="511">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="513">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="515">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="516">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="518">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="519">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="521">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="522">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="524">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="525">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="527">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="528">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="530">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="531">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="533">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="534">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="536">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="538">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="539">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="541">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="542">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="544">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="545">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="547">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="548">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="550">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="551">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="553">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="555">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="556">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="558">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="559">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="561">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="562">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="564">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="565">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="567">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="568">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="570">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="571">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="573">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="574">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="576">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="577">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="579">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="580">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="581">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="582">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="583">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="584">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="585">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="586">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="587">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="588">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="589">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="590">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="591">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="592">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="593">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="594">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="595">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="596">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="597">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="599">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="601">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="603">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="605">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="607">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="609">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="611">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="613">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="615">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="617">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="619">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="621">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="623">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="625">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="627">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="629">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/208</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/210</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/178</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/179</t>
+  </si>
+  <si>
+    <t>/qatarH</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/180</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/181</t>
   </si>
 </sst>
 </file>
@@ -770,10 +788,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1550,23 +1598,48 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s" s="63">
+        <v>6</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s" s="65">
+        <v>6</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s" s="67">
+        <v>36</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s" s="69">
+        <v>36</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s" s="71">
+        <v>36</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/181</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/182</t>
+  </si>
+  <si>
+    <t>/qatarLastest</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/183</t>
   </si>
 </sst>
 </file>
@@ -788,10 +797,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1643,11 +1664,21 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s" s="73">
+        <v>40</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s" s="75">
+        <v>40</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/183</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/184</t>
+  </si>
+  <si>
+    <t>/qatar2</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/185</t>
   </si>
 </sst>
 </file>
@@ -797,10 +806,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1682,11 +1703,21 @@
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s" s="77">
+        <v>43</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s" s="79">
+        <v>43</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/185</t>
+  </si>
+  <si>
+    <t>/qatartest</t>
   </si>
 </sst>
 </file>
@@ -806,10 +809,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1721,15 +1742,30 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s" s="81">
+        <v>6</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="83">
+        <v>45</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="85">
+        <v>45</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>/qatartest</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/articles/edit/176</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -809,10 +815,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1769,7 +1781,12 @@
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s" s="87">
+        <v>47</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>/qatartest</t>
+  </si>
+  <si>
+    <t>/ib-writing-service/exhibit-writing-service</t>
+  </si>
+  <si>
+    <t>/ib-writing-service/exhibit-writing-service2</t>
+  </si>
+  <si>
+    <t>/tok-page3</t>
   </si>
 </sst>
 </file>
@@ -809,10 +818,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1769,23 +1808,48 @@
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s" s="87">
+        <v>46</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s" s="89">
+        <v>47</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s" s="91">
+        <v>46</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="93">
+        <v>47</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s" s="95">
+        <v>48</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>/hientest-landingpage</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/186</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/187</t>
   </si>
 </sst>
 </file>
@@ -815,10 +824,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1790,15 +1817,30 @@
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s" s="89">
+        <v>48</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s" s="91">
+        <v>48</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s" s="93">
+        <v>48</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -4,31 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -45,153 +32,153 @@
     <t>status</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/update-contents/185</t>
-  </si>
-  <si>
-    <t>/qatar</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/contents/186</t>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/185</t>
+  </si>
+  <si>
+    <t>/hientest-landingpage</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/186</t>
+  </si>
+  <si>
+    <t>/LandingPageTest</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/187</t>
+  </si>
+  <si>
+    <t>/langdingpage</t>
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/188</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/189</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/contents/189</t>
+    <t>/LANGDINGPAGE</t>
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/190</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/contents/190</t>
-  </si>
-  <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/191</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/contents/191</t>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/184</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/253</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/contents/192</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/193</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/194</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/195</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/196</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/197</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/199</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/200</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/201</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/202</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/203</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/204</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/205</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/206</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/207</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/208</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/210</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/178</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/179</t>
-  </si>
-  <si>
-    <t>/qatarH</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/180</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/181</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/182</t>
-  </si>
-  <si>
-    <t>/qatarLastest</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/183</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/184</t>
-  </si>
-  <si>
-    <t>/qatar2</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/185</t>
-  </si>
-  <si>
-    <t>/qatartest</t>
-  </si>
-  <si>
-    <t>https://yeti-cloud.com/yeti/main/articles/edit/176</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>/hientest-landingpage</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/186</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/187</t>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/214</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/215</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/216</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/217</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/218</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/219</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/220</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/221</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/222</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/223</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/224</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/225</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/226</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/227</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/228</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/229</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/230</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/231</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/232</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/233</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/234</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/235</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/236</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/237</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/238</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/239</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/240</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/241</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/244</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/245</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/246</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -216,42 +203,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,6 +223,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,31 +265,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,25 +309,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -367,25 +354,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,25 +444,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,127 +510,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,17 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,15 +586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,17 +620,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,152 +666,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -995,165 +982,57 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1424,14 +1303,14 @@
   <sheetPr/>
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5714285714286"/>
-    <col min="2" max="2" customWidth="true" width="70.1428571428571"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="70.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1458,62 +1337,58 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="24" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>6</v>
@@ -1522,341 +1397,277 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>6</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>6</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s" s="48">
-        <v>6</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s" s="50">
-        <v>6</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s" s="52">
-        <v>6</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s" s="54">
-        <v>6</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s" s="56">
-        <v>6</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s" s="61">
-        <v>6</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s" s="63">
-        <v>6</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s" s="65">
-        <v>6</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s" s="67">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="68" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s" s="69">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="70" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s" s="71">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="72" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s" s="73">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="74" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s" s="75">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="76" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s" s="77">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="78" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s" s="79">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s" s="81">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s" s="83">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s" s="85">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="86" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s" s="87">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s" s="89">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="90" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s" s="91">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="92" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s" s="93">
-        <v>48</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
@@ -3113,10 +2924,10 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5714285714286"/>
-    <col min="2" max="2" customWidth="true" width="24.1428571428571"/>
+    <col min="1" max="1" customWidth="true" width="45.5703125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="347">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,894 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/246</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/247</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/248</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/249</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/250</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/251</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/252</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/253</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/254</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/255</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/256</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/257</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/258</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/259</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/260</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/261</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/262</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/263</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/264</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/265</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/266</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/267</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/269</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/270</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/271</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/272</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/273</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/274</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/275</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/276</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/277</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/278</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/279</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/280</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/281</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/282</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/283</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/284</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/285</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/286</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/297</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/298</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/299</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/300</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/301</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/302</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/303</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/255</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/256</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/257</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/258</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/259</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/260</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/261</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/262</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/263</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/264</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/265</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/266</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/267</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/269</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/270</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/271</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/272</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/273</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/274</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/275</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/276</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/277</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/278</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/279</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/280</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/281</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/282</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/283</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/284</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/285</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/286</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/297</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/298</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/299</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/300</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/301</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/302</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/303</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/351</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/352</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/353</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/354</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/355</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/356</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/357</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/358</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/359</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/360</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/361</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/362</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/363</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/364</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/365</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/366</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/367</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/368</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/369</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/370</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/371</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/372</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/373</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/374</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/375</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/376</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/377</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/378</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/379</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/380</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/381</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/382</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/383</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/384</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/385</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/386</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/387</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/388</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/389</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/390</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/391</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/392</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/393</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/394</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/395</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/396</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/397</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/398</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/399</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/400</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/401</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/402</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/403</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/404</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/405</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/406</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/407</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/408</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/409</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/410</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/411</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/412</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/413</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/414</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/415</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/416</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/417</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/418</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/419</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/420</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/421</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/422</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/423</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/login</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/424</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/425</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/426</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/427</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/428</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/429</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/430</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/431</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/432</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/433</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/434</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/435</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/436</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/437</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/438</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/reviews/edit/439</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/352</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/353</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/354</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/355</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/356</t>
   </si>
 </sst>
 </file>
@@ -811,10 +1699,2821 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="995">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1301,7 +5000,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:E628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1337,7 +5036,7 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="488" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1348,7 +5047,9 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="490" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
@@ -1357,7 +5058,9 @@
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="492" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
@@ -1366,7 +5069,9 @@
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="494" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
@@ -1375,7 +5080,9 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="496" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
@@ -1384,7 +5091,9 @@
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="498" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="15" t="s">
@@ -1393,7 +5102,9 @@
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="500" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
@@ -1402,7 +5113,9 @@
       <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="502" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
@@ -1411,7 +5124,9 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="504" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="21" t="s">
@@ -1420,1494 +5135,3652 @@
       <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="506" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="508" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="510" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="512" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="514" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="516" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="518" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="520" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="522" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="524" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="526" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="528" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="530" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="532" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="534" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="536" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="538" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="540" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="542" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="544" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="546" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="548" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="550" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="552" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="554" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="556" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="558" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="560" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="562" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="52" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="564" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="566" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="54" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="568" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="55" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="570" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="56" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="572" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="57" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="574" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="58" t="s">
+        <v>51</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="576" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="59" t="s">
+        <v>52</v>
+      </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="578" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="580" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="582" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="584" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="586" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="588" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="590" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="592" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="594" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="596" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="598" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="600" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="602" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="604" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="606" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="608" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="610" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="612" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="614" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="616" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="618" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="620" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="622" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="624" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="626" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="628" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="630" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="632" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="634" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="636" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="638" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="640" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="642" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="644" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="646" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="A82" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="648" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="650" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="652" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="654" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="656" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="658" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="A88" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="660" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="662" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="664" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="666" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="668" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="670" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="672" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="674" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="676" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="A97" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="678" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="680" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="682" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="684" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="A101" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="686" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="A102" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="688" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="A103" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="690" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="692" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="A105" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="694" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="A106" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="696" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="A107" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="698" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="700" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="702" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="A110" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="704" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="706" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="708" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="710" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="712" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="714" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="716" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="718" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="720" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="722" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="724" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="726" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="728" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="730" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="A124" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="732" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="734" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="736" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="A127" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" s="738" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="A128" s="140" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="740" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="A129" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="742" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="744" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="A131" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="746" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132" s="748" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="A133" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="750" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="A134" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="752" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="A135" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135" s="754" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="756" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" s="758" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="A138" s="153" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="760" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="A139" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139" s="762" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="A140" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="764" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="A141" s="159" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="766" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="A142" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="768" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="A143" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="770" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="A144" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="772" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="A145" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="774" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="776" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" s="171" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="778" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="780" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" s="175" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" s="782" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="177" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="784" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" s="179" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" s="786" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="788" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" s="183" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="790" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="792" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="794" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="796" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="798" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" s="193" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="800" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" s="195" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="802" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" s="197" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" s="804" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" s="199" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" s="806" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="201" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="808" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" s="203" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163" s="810" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="A164" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" s="812" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="A165" s="207" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="814" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="A166" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166" s="816" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="A167" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="818" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="A168" s="213" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="820" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" s="215" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" s="822" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" s="824" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="219" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171" s="826" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="A172" s="221" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172" s="828" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="A173" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173" s="830" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="A174" s="225" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174" s="832" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="A175" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="834" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="A176" s="229" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" s="836" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="231" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="838" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="A178" s="233" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" s="840" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="A179" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179" s="842" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="A180" s="237" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="844" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="A181" s="239" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="846" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="A182" s="241" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="848" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="243" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="850" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="A184" s="245" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="852" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="A185" s="247" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="854" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="2"/>
+      <c r="A186" s="249" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="2"/>
+      <c r="A187" s="251" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="2"/>
+      <c r="A188" s="253" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="2"/>
+      <c r="A189" s="255" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="2"/>
+      <c r="A190" s="257" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="2"/>
+      <c r="A191" s="259" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="2"/>
+      <c r="A192" s="261" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="2"/>
+      <c r="A193" s="263" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="2"/>
+      <c r="A194" s="265" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="2"/>
+      <c r="A195" s="267" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="2"/>
+      <c r="A196" s="269" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="2"/>
+      <c r="A197" s="271" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="2"/>
+      <c r="A198" s="273" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="2"/>
+      <c r="A199" s="275" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="2"/>
+      <c r="A200" s="277" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="2"/>
+      <c r="A201" s="279" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="2"/>
+      <c r="A202" s="281" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="2"/>
+      <c r="A203" s="283" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="2"/>
+      <c r="A204" s="285" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="2"/>
+      <c r="A205" s="287" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="2"/>
+      <c r="A206" s="289" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="2"/>
+      <c r="A207" s="291" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="2"/>
+      <c r="A208" s="293" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="2"/>
+      <c r="A209" s="295" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="2"/>
+      <c r="A210" s="297" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="2"/>
+      <c r="A211" s="299" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="2"/>
+      <c r="A212" s="301" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="2"/>
+      <c r="A213" s="303" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="2"/>
+      <c r="A214" s="305" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="2"/>
+      <c r="A215" s="307" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="2"/>
+      <c r="A216" s="309" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="2"/>
+      <c r="A217" s="311" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="2"/>
+      <c r="A218" s="313" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="2"/>
+      <c r="A219" s="315" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="2"/>
+      <c r="A220" s="317" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="2"/>
+      <c r="A221" s="319" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="2"/>
+      <c r="A222" s="321" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="2"/>
+      <c r="A223" s="323" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="2"/>
+      <c r="A224" s="325" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="2"/>
+      <c r="A225" s="327" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="2"/>
+      <c r="A226" s="329" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="2"/>
+      <c r="A227" s="331" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="2"/>
+      <c r="A228" s="333" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="2"/>
+      <c r="A229" s="335" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="2"/>
+      <c r="A230" s="337" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="2"/>
+      <c r="A231" s="339" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="2"/>
+      <c r="A232" s="341" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="2"/>
+      <c r="A233" s="343" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="2"/>
+      <c r="A234" s="345" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="2"/>
+      <c r="A235" s="347" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="2"/>
+      <c r="A236" s="349" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="2"/>
+      <c r="A237" s="351" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="2"/>
+      <c r="A238" s="353" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="2"/>
+      <c r="A239" s="355" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="2"/>
+      <c r="A240" s="357" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="2"/>
+      <c r="A241" s="359" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="2"/>
+      <c r="A242" s="361" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="2"/>
+      <c r="A243" s="363" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="2"/>
+      <c r="A244" s="365" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="2"/>
+      <c r="A245" s="367" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="2"/>
+      <c r="A246" s="369" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="2"/>
+      <c r="A247" s="371" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="2"/>
+      <c r="A248" s="373" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="2"/>
+      <c r="A249" s="375" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="2"/>
+      <c r="A250" s="377" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="2"/>
+      <c r="A251" s="379" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="2"/>
+      <c r="A252" s="381" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="2"/>
+      <c r="A253" s="383" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="2"/>
+      <c r="A254" s="385" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="2"/>
+      <c r="A255" s="387" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="2"/>
+      <c r="A256" s="389" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="2"/>
+      <c r="A257" s="391" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="2"/>
+      <c r="A258" s="393" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="2"/>
+      <c r="A259" s="395" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="2"/>
+      <c r="A260" s="397" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="2"/>
+      <c r="A261" s="399" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="2"/>
+      <c r="A262" s="401" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="2"/>
+      <c r="A263" s="403" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="2"/>
+      <c r="A264" s="405" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="2"/>
+      <c r="A265" s="407" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="2"/>
+      <c r="A266" s="409" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="2"/>
+      <c r="A267" s="411" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="2"/>
+      <c r="A268" s="413" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="2"/>
+      <c r="A269" s="415" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="2"/>
+      <c r="A270" s="417" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="2"/>
+      <c r="A271" s="419" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="2"/>
+      <c r="A272" s="421" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="2"/>
+      <c r="A273" s="423" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="2"/>
+      <c r="A274" s="425" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="2"/>
+      <c r="A275" s="427" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="2"/>
+      <c r="A276" s="429" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="2"/>
+      <c r="A277" s="431" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="2"/>
+      <c r="A278" s="433" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="2"/>
+      <c r="A279" s="435" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="2"/>
+      <c r="A280" s="437" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="2"/>
+      <c r="A281" s="439" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="2"/>
+      <c r="A282" s="441" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="2"/>
+      <c r="A283" s="443" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="2"/>
+      <c r="A284" s="445" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="2"/>
+      <c r="A285" s="447" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="2"/>
+      <c r="A286" s="449" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="2"/>
+      <c r="A287" s="451" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="2"/>
+      <c r="A288" s="453" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="2"/>
+      <c r="A289" s="455" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="2"/>
+      <c r="A290" s="457" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="2"/>
+      <c r="A291" s="459" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="2"/>
+      <c r="A292" s="461" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="2"/>
+      <c r="A293" s="463" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="2"/>
+      <c r="A294" s="465" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="2"/>
+      <c r="A295" s="467" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="2"/>
+      <c r="A296" s="469" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="2"/>
+      <c r="A297" s="471" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="2"/>
+      <c r="A298" s="473" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="2"/>
+      <c r="A299" s="475" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="2"/>
+      <c r="A300" s="477" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="2"/>
+      <c r="A301" s="479" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="2"/>
+      <c r="A302" s="481" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="2"/>
+      <c r="A303" s="483" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="2"/>
+      <c r="A304" s="485" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="2"/>
+      <c r="A305" s="487" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="2"/>
+      <c r="A306" s="489" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="2"/>
+      <c r="A307" s="491" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="2"/>
+      <c r="A308" s="493" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="2"/>
+      <c r="A309" s="495" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="2"/>
+      <c r="A310" s="497" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="2"/>
+      <c r="A311" s="499" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="2"/>
+      <c r="A312" s="501" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="2"/>
+      <c r="A313" s="503" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="2"/>
+      <c r="A314" s="505" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="2"/>
+      <c r="A315" s="507" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="2"/>
+      <c r="A316" s="509" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="2"/>
+      <c r="A317" s="511" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="2"/>
+      <c r="A318" s="513" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="2"/>
+      <c r="A319" s="515" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="2"/>
+      <c r="A320" s="517" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="2"/>
+      <c r="A321" s="519" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="2"/>
+      <c r="A322" s="521" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="2"/>
+      <c r="A323" s="523" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="2"/>
+      <c r="A324" s="525" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="2"/>
+      <c r="A325" s="527" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="2"/>
+      <c r="A326" s="529" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="2"/>
+      <c r="A327" s="531" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="2"/>
+      <c r="A328" s="533" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="2"/>
+      <c r="A329" s="535" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="2"/>
+      <c r="A330" s="537" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="2"/>
+      <c r="A331" s="539" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="2"/>
+      <c r="A332" s="541" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="2"/>
+      <c r="A333" s="543" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="2"/>
+      <c r="A334" s="545" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="2"/>
+      <c r="A335" s="547" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="2"/>
+      <c r="A336" s="549" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="2"/>
+      <c r="A337" s="551" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="2"/>
+      <c r="A338" s="553" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="2"/>
+      <c r="A339" s="555" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="2"/>
+      <c r="A340" s="557" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="2"/>
+      <c r="A341" s="559" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="2"/>
+      <c r="A342" s="561" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="2"/>
+      <c r="A343" s="563" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="2"/>
+      <c r="A344" s="565" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="2"/>
+      <c r="A345" s="567" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="2"/>
+      <c r="A346" s="569" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="2"/>
+      <c r="A347" s="571" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="2"/>
+      <c r="A348" s="573" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="2"/>
+      <c r="A349" s="575" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="2"/>
+      <c r="A350" s="577" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="2"/>
+      <c r="A351" s="579" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="2"/>
+      <c r="A352" s="581" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="2"/>
+      <c r="A353" s="583" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="2"/>
+      <c r="A354" s="585" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="2"/>
+      <c r="A355" s="587" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="2"/>
+      <c r="A356" s="589" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="2"/>
+      <c r="A357" s="591" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="2"/>
+      <c r="A358" s="593" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="2"/>
+      <c r="A359" s="595" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="2"/>
+      <c r="A360" s="597" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="2"/>
+      <c r="A361" s="599" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="2"/>
+      <c r="A362" s="601" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="2"/>
+      <c r="A363" s="603" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="2"/>
+      <c r="A364" s="605" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="2"/>
+      <c r="A365" s="607" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="2"/>
+      <c r="A366" s="609" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="2"/>
+      <c r="A367" s="611" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="2"/>
+      <c r="A368" s="613" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="2"/>
+      <c r="A369" s="615" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="2"/>
+      <c r="A370" s="617" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="2"/>
+      <c r="A371" s="619" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="2"/>
+      <c r="A372" s="621" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="2"/>
+      <c r="A373" s="623" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="2"/>
+      <c r="A374" s="625" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="2"/>
+      <c r="A375" s="627" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="2"/>
+      <c r="A376" s="629" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="2"/>
+      <c r="A377" s="631" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="2"/>
+      <c r="A378" s="633" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="2"/>
+      <c r="A379" s="635" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="2"/>
+      <c r="A380" s="637" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="2"/>
+      <c r="A381" s="639" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="2"/>
+      <c r="A382" s="641" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="2"/>
+      <c r="A383" s="643" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="2"/>
+      <c r="A384" s="645" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="2"/>
+      <c r="A385" s="647" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="2"/>
+      <c r="A386" s="649" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="2"/>
+      <c r="A387" s="651" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="2"/>
+      <c r="A388" s="653" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="2"/>
+      <c r="A389" s="655" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="2"/>
+      <c r="A390" s="657" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="2"/>
+      <c r="A391" s="659" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="2"/>
+      <c r="A392" s="661" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="2"/>
+      <c r="A393" s="663" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="2"/>
+      <c r="A394" s="665" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="2"/>
+      <c r="A395" s="667" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="2"/>
+      <c r="A396" s="669" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="2"/>
+      <c r="A397" s="671" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="2"/>
+      <c r="A398" s="673" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="2"/>
+      <c r="A399" s="675" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="2"/>
+      <c r="A400" s="677" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="2"/>
+      <c r="A401" s="679" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="2"/>
+      <c r="A402" s="681" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="2"/>
+      <c r="A403" s="683" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="2"/>
+      <c r="A404" s="685" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="2"/>
+      <c r="A405" s="687" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="2"/>
+      <c r="A406" s="689" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="2"/>
+      <c r="A407" s="691" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="2"/>
+      <c r="A408" s="693" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="2"/>
+      <c r="A409" s="695" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="2"/>
+      <c r="A410" s="697" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="2"/>
+      <c r="A411" s="699" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="2"/>
+      <c r="A412" s="701" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="2"/>
+      <c r="A413" s="703" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="2"/>
+      <c r="A414" s="705" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="707">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="709">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="711">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="713">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="715">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="717">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="719">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="721">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="723">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="725">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="727">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="729">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="731">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="733">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="735">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="737">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="739">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="741">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="743">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="745">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="747">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="749">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="751">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="753">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="755">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="757">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="759">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="761">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="763">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="765">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="767">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="769">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="771">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="773">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="775">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="777">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="779">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="781">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="783">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="785">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="787">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="789">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="791">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="793">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="795">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="797">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="799">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="801">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="803">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="805">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="807">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="809">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="811">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="813">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="815">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="817">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="819">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="821">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="823">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="825">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="827">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="829">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="831">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="833">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="835">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="837">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="839">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="841">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="843">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="845">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="847">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="849">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="851">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="853">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="855">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="856">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="857">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="858">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="859">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="860">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="861">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="862">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="863">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="864">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="865">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="866">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="867">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="868">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="869">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="870">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="871">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="872">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="873">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="874">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="875">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="876">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="877">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="878">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="879">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="880">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="881">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="882">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="883">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="884">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="885">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="886">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="887">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="888">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="889">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="890">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="891">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="892">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="893">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="894">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="895">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="896">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="897">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="898">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="899">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="900">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="901">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="902">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="903">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="904">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="905">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="906">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="907">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="908">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="909">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="910">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="911">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="912">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="913">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="914">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="915">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="916">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="917">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="918">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="919">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="920">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="921">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="922">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="923">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="924">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="925">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="926">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="927">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="928">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="929">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="930">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="931">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="932">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="933">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="934">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="935">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="936">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="937">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="938">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="939">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="940">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="941">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="942">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="943">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="944">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="945">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="946">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="947">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="948">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="949">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="950">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="951">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="952">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="953">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="954">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="955">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="956">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="957">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="958">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="959">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="960">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="961">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="962">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="963">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="964">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="965">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="966">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="967">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="968">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="969">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="970">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="971">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="972">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="973">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="974">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="975">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="976">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="977">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="978">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="979">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="980">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="981">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="982">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="983">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="984">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="985">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="986">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="987">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="988">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="989">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="990">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="991">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="992">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="993">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="994">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="352">
   <si>
     <t>ID</t>
   </si>
@@ -1056,6 +1056,21 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/356</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/189</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/193</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/194</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1714,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="995">
+  <cellXfs count="1013">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -5000,7 +5069,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E628"/>
+  <dimension ref="A1:E637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -5143,7 +5212,9 @@
       <c r="A12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="996" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="508" t="s">
         <v>17</v>
       </c>
@@ -5152,7 +5223,9 @@
       <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="998" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="510" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5234,9 @@
       <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="1000" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="512" t="s">
         <v>17</v>
       </c>
@@ -5170,7 +5245,9 @@
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1002" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="514" t="s">
         <v>17</v>
       </c>
@@ -5179,7 +5256,9 @@
       <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="1004" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="516" t="s">
         <v>17</v>
       </c>
@@ -5188,7 +5267,9 @@
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1006" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="518" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5278,9 @@
       <c r="A18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="1008" t="s">
+        <v>10</v>
+      </c>
       <c r="C18" s="520" t="s">
         <v>17</v>
       </c>
@@ -5206,7 +5289,9 @@
       <c r="A19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1010" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="522" t="s">
         <v>17</v>
       </c>
@@ -5215,7 +5300,9 @@
       <c r="A20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1012" t="s">
+        <v>351</v>
+      </c>
       <c r="C20" s="524" t="s">
         <v>17</v>
       </c>
@@ -8780,6 +8867,51 @@
     <row r="628">
       <c r="A628" t="s" s="994">
         <v>346</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="995">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="997">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="999">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="1001">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="1003">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="1005">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="1007">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="1009">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="1011">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="431">
   <si>
     <t>ID</t>
   </si>
@@ -1071,6 +1071,243 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/214</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/215</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/216</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/217</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/218</t>
+  </si>
+  <si>
+    <t>https://yeti-cloud.com/yeti/main/writers/edit/219</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/264</t>
+  </si>
+  <si>
+    <t>/samples/essay/gender-studies</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/265</t>
+  </si>
+  <si>
+    <t>/samples/essay/persuasive-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/266</t>
+  </si>
+  <si>
+    <t>/samples/essay/mba-application</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/267</t>
+  </si>
+  <si>
+    <t>/samples/essay/anthropology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/268</t>
+  </si>
+  <si>
+    <t>/samples/essay/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/269</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/health-care</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/270</t>
+  </si>
+  <si>
+    <t>/discussion-post/history</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/271</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/272</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/273</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/culture-and-society</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/274</t>
+  </si>
+  <si>
+    <t>/samples/term-paper/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/275</t>
+  </si>
+  <si>
+    <t>/samples/homework/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/276</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/apa</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/gun-control</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/business-managment</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/phd</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/mla</t>
+  </si>
+  <si>
+    <t>/samples/personal-statement/medicine</t>
+  </si>
+  <si>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
+  </si>
+  <si>
+    <t>/samples/speech/graduation</t>
+  </si>
+  <si>
+    <t>/samples/speech/high-school</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/277</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/spectrophotometry-lab</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/278</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/chemistry</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/279</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/physics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/280</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/biology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/281</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/282</t>
+  </si>
+  <si>
+    <t>/samples/lesson-plan/education</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/283</t>
+  </si>
+  <si>
+    <t>/samples/nursing-plan/nursing</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/284</t>
+  </si>
+  <si>
+    <t>/samples/epq-essay/essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/285</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/286</t>
+  </si>
+  <si>
+    <t>/samples/question-answer/psychology</t>
+  </si>
+  <si>
+    <t>/test-new-service-page</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/save</t>
+  </si>
+  <si>
+    <t>/NewServicePageTest</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/297</t>
+  </si>
+  <si>
+    <t>/Servicepage.test2</t>
+  </si>
+  <si>
+    <t>/NEWSERVICEPAGE</t>
+  </si>
+  <si>
+    <t>/sample-hien</t>
+  </si>
+  <si>
+    <t>/samples-list</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/195</t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1951,1060 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1013">
+  <cellXfs count="1363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -5069,7 +6356,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E637"/>
+  <dimension ref="A1:E839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -5105,7 +6392,7 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="488" t="s">
+      <c r="C2" s="1230" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5116,7 +6403,7 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="490" t="s">
+      <c r="C3" s="1232" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5127,7 +6414,7 @@
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="492" t="s">
+      <c r="C4" s="1234" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5138,7 +6425,7 @@
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="494" t="s">
+      <c r="C5" s="1236" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5149,7 +6436,7 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="496" t="s">
+      <c r="C6" s="1238" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5160,7 +6447,7 @@
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="498" t="s">
+      <c r="C7" s="1240" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5171,7 +6458,7 @@
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="500" t="s">
+      <c r="C8" s="1242" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5182,7 +6469,7 @@
       <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="502" t="s">
+      <c r="C9" s="1244" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5193,7 +6480,7 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="504" t="s">
+      <c r="C10" s="1246" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5204,7 +6491,7 @@
       <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="506" t="s">
+      <c r="C11" s="1248" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5215,7 +6502,7 @@
       <c r="B12" s="996" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="508" t="s">
+      <c r="C12" s="1250" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5226,7 +6513,7 @@
       <c r="B13" s="998" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="510" t="s">
+      <c r="C13" s="1252" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5237,7 +6524,7 @@
       <c r="B14" s="1000" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="512" t="s">
+      <c r="C14" s="1254" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5248,7 +6535,7 @@
       <c r="B15" s="1002" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="514" t="s">
+      <c r="C15" s="1256" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5259,7 +6546,7 @@
       <c r="B16" s="1004" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="516" t="s">
+      <c r="C16" s="1258" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5270,7 +6557,7 @@
       <c r="B17" s="1006" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="518" t="s">
+      <c r="C17" s="1260" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5281,7 +6568,7 @@
       <c r="B18" s="1008" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="520" t="s">
+      <c r="C18" s="1262" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5292,7 +6579,7 @@
       <c r="B19" s="1010" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="522" t="s">
+      <c r="C19" s="1264" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5303,7 +6590,7 @@
       <c r="B20" s="1012" t="s">
         <v>351</v>
       </c>
-      <c r="C20" s="524" t="s">
+      <c r="C20" s="1266" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5311,8 +6598,10 @@
       <c r="A21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="526" t="s">
+      <c r="B21" s="1020" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="1268" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5320,8 +6609,10 @@
       <c r="A22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="528" t="s">
+      <c r="B22" s="1022" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="1270" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5329,8 +6620,10 @@
       <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="530" t="s">
+      <c r="B23" s="1024" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="1272" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5338,8 +6631,10 @@
       <c r="A24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="532" t="s">
+      <c r="B24" s="1026" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="1274" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5347,8 +6642,10 @@
       <c r="A25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="534" t="s">
+      <c r="B25" s="1028" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="1276" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5356,8 +6653,10 @@
       <c r="A26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="536" t="s">
+      <c r="B26" s="1030" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="1278" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5365,8 +6664,10 @@
       <c r="A27" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="538" t="s">
+      <c r="B27" s="1032" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="1280" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5374,8 +6675,10 @@
       <c r="A28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="540" t="s">
+      <c r="B28" s="1034" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="1282" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5383,8 +6686,10 @@
       <c r="A29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="542" t="s">
+      <c r="B29" s="1036" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="1284" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5392,7 +6697,9 @@
       <c r="A30" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="1038" t="s">
+        <v>377</v>
+      </c>
       <c r="C30" s="544" t="s">
         <v>17</v>
       </c>
@@ -5401,7 +6708,9 @@
       <c r="A31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1040" t="s">
+        <v>379</v>
+      </c>
       <c r="C31" s="546" t="s">
         <v>17</v>
       </c>
@@ -5410,7 +6719,9 @@
       <c r="A32" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="1042" t="s">
+        <v>381</v>
+      </c>
       <c r="C32" s="548" t="s">
         <v>17</v>
       </c>
@@ -5419,7 +6730,9 @@
       <c r="A33" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1044" t="s">
+        <v>383</v>
+      </c>
       <c r="C33" s="550" t="s">
         <v>17</v>
       </c>
@@ -5428,7 +6741,9 @@
       <c r="A34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="1046" t="s">
+        <v>384</v>
+      </c>
       <c r="C34" s="552" t="s">
         <v>17</v>
       </c>
@@ -5437,7 +6752,9 @@
       <c r="A35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="1048" t="s">
+        <v>385</v>
+      </c>
       <c r="C35" s="554" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +6763,9 @@
       <c r="A36" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1050" t="s">
+        <v>386</v>
+      </c>
       <c r="C36" s="556" t="s">
         <v>17</v>
       </c>
@@ -5455,7 +6774,9 @@
       <c r="A37" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1052" t="s">
+        <v>387</v>
+      </c>
       <c r="C37" s="558" t="s">
         <v>17</v>
       </c>
@@ -5464,7 +6785,9 @@
       <c r="A38" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1054" t="s">
+        <v>388</v>
+      </c>
       <c r="C38" s="560" t="s">
         <v>17</v>
       </c>
@@ -5473,7 +6796,9 @@
       <c r="A39" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1056" t="s">
+        <v>389</v>
+      </c>
       <c r="C39" s="562" t="s">
         <v>17</v>
       </c>
@@ -5482,7 +6807,9 @@
       <c r="A40" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="1058" t="s">
+        <v>390</v>
+      </c>
       <c r="C40" s="564" t="s">
         <v>17</v>
       </c>
@@ -5491,7 +6818,9 @@
       <c r="A41" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1060" t="s">
+        <v>359</v>
+      </c>
       <c r="C41" s="566" t="s">
         <v>17</v>
       </c>
@@ -5500,7 +6829,9 @@
       <c r="A42" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="1062" t="s">
+        <v>361</v>
+      </c>
       <c r="C42" s="568" t="s">
         <v>17</v>
       </c>
@@ -5509,7 +6840,9 @@
       <c r="A43" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="1064" t="s">
+        <v>363</v>
+      </c>
       <c r="C43" s="570" t="s">
         <v>17</v>
       </c>
@@ -5518,7 +6851,9 @@
       <c r="A44" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="1066" t="s">
+        <v>365</v>
+      </c>
       <c r="C44" s="572" t="s">
         <v>17</v>
       </c>
@@ -5527,7 +6862,9 @@
       <c r="A45" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="1068" t="s">
+        <v>367</v>
+      </c>
       <c r="C45" s="574" t="s">
         <v>17</v>
       </c>
@@ -5536,7 +6873,9 @@
       <c r="A46" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="1070" t="s">
+        <v>369</v>
+      </c>
       <c r="C46" s="576" t="s">
         <v>17</v>
       </c>
@@ -5545,7 +6884,9 @@
       <c r="A47" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="1072" t="s">
+        <v>371</v>
+      </c>
       <c r="C47" s="578" t="s">
         <v>17</v>
       </c>
@@ -5554,6 +6895,9 @@
       <c r="A48" s="60" t="s">
         <v>53</v>
       </c>
+      <c r="B48" t="s" s="1074">
+        <v>373</v>
+      </c>
       <c r="C48" s="580" t="s">
         <v>17</v>
       </c>
@@ -5562,6 +6906,9 @@
       <c r="A49" s="61" t="s">
         <v>54</v>
       </c>
+      <c r="B49" t="s" s="1156">
+        <v>375</v>
+      </c>
       <c r="C49" s="582" t="s">
         <v>17</v>
       </c>
@@ -5570,6 +6917,9 @@
       <c r="A50" s="62" t="s">
         <v>55</v>
       </c>
+      <c r="B50" t="s" s="1158">
+        <v>377</v>
+      </c>
       <c r="C50" s="584" t="s">
         <v>17</v>
       </c>
@@ -5578,6 +6928,9 @@
       <c r="A51" s="63" t="s">
         <v>56</v>
       </c>
+      <c r="B51" t="s" s="1160">
+        <v>379</v>
+      </c>
       <c r="C51" s="586" t="s">
         <v>17</v>
       </c>
@@ -5586,6 +6939,9 @@
       <c r="A52" s="64" t="s">
         <v>57</v>
       </c>
+      <c r="B52" t="s" s="1162">
+        <v>381</v>
+      </c>
       <c r="C52" s="588" t="s">
         <v>17</v>
       </c>
@@ -5594,6 +6950,9 @@
       <c r="A53" s="65" t="s">
         <v>58</v>
       </c>
+      <c r="B53" t="s" s="1164">
+        <v>383</v>
+      </c>
       <c r="C53" s="590" t="s">
         <v>17</v>
       </c>
@@ -5602,6 +6961,9 @@
       <c r="A54" s="66" t="s">
         <v>59</v>
       </c>
+      <c r="B54" t="s" s="1166">
+        <v>384</v>
+      </c>
       <c r="C54" s="592" t="s">
         <v>17</v>
       </c>
@@ -5610,6 +6972,9 @@
       <c r="A55" s="67" t="s">
         <v>60</v>
       </c>
+      <c r="B55" t="s" s="1168">
+        <v>385</v>
+      </c>
       <c r="C55" s="594" t="s">
         <v>17</v>
       </c>
@@ -5618,6 +6983,9 @@
       <c r="A56" s="68" t="s">
         <v>61</v>
       </c>
+      <c r="B56" t="s" s="1170">
+        <v>386</v>
+      </c>
       <c r="C56" s="596" t="s">
         <v>17</v>
       </c>
@@ -5626,6 +6994,9 @@
       <c r="A57" s="69" t="s">
         <v>62</v>
       </c>
+      <c r="B57" t="s" s="1172">
+        <v>387</v>
+      </c>
       <c r="C57" s="598" t="s">
         <v>17</v>
       </c>
@@ -5634,6 +7005,9 @@
       <c r="A58" s="70" t="s">
         <v>63</v>
       </c>
+      <c r="B58" t="s" s="1174">
+        <v>388</v>
+      </c>
       <c r="C58" s="600" t="s">
         <v>17</v>
       </c>
@@ -5642,6 +7016,9 @@
       <c r="A59" s="71" t="s">
         <v>64</v>
       </c>
+      <c r="B59" t="s" s="1176">
+        <v>389</v>
+      </c>
       <c r="C59" s="602" t="s">
         <v>17</v>
       </c>
@@ -5650,6 +7027,9 @@
       <c r="A60" s="72" t="s">
         <v>65</v>
       </c>
+      <c r="B60" t="s" s="1178">
+        <v>390</v>
+      </c>
       <c r="C60" s="604" t="s">
         <v>17</v>
       </c>
@@ -5658,6 +7038,9 @@
       <c r="A61" s="73" t="s">
         <v>66</v>
       </c>
+      <c r="B61" t="s" s="1180">
+        <v>391</v>
+      </c>
       <c r="C61" s="606" t="s">
         <v>17</v>
       </c>
@@ -5666,6 +7049,9 @@
       <c r="A62" s="74" t="s">
         <v>67</v>
       </c>
+      <c r="B62" t="s" s="1182">
+        <v>393</v>
+      </c>
       <c r="C62" s="608" t="s">
         <v>17</v>
       </c>
@@ -5674,6 +7060,9 @@
       <c r="A63" s="75" t="s">
         <v>68</v>
       </c>
+      <c r="B63" t="s" s="1184">
+        <v>395</v>
+      </c>
       <c r="C63" s="610" t="s">
         <v>17</v>
       </c>
@@ -5682,6 +7071,9 @@
       <c r="A64" s="76" t="s">
         <v>69</v>
       </c>
+      <c r="B64" t="s" s="1186">
+        <v>397</v>
+      </c>
       <c r="C64" s="612" t="s">
         <v>17</v>
       </c>
@@ -5690,6 +7082,9 @@
       <c r="A65" s="77" t="s">
         <v>70</v>
       </c>
+      <c r="B65" t="s" s="1188">
+        <v>399</v>
+      </c>
       <c r="C65" s="614" t="s">
         <v>17</v>
       </c>
@@ -5698,6 +7093,9 @@
       <c r="A66" s="78" t="s">
         <v>71</v>
       </c>
+      <c r="B66" t="s" s="1190">
+        <v>401</v>
+      </c>
       <c r="C66" s="616" t="s">
         <v>17</v>
       </c>
@@ -5706,6 +7104,9 @@
       <c r="A67" s="79" t="s">
         <v>72</v>
       </c>
+      <c r="B67" t="s" s="1192">
+        <v>403</v>
+      </c>
       <c r="C67" s="618" t="s">
         <v>17</v>
       </c>
@@ -5714,6 +7115,9 @@
       <c r="A68" s="80" t="s">
         <v>73</v>
       </c>
+      <c r="B68" t="s" s="1194">
+        <v>405</v>
+      </c>
       <c r="C68" s="620" t="s">
         <v>17</v>
       </c>
@@ -5722,6 +7126,9 @@
       <c r="A69" s="81" t="s">
         <v>74</v>
       </c>
+      <c r="B69" t="s" s="1196">
+        <v>407</v>
+      </c>
       <c r="C69" s="622" t="s">
         <v>17</v>
       </c>
@@ -5730,6 +7137,9 @@
       <c r="A70" s="82" t="s">
         <v>75</v>
       </c>
+      <c r="B70" t="s" s="1198">
+        <v>409</v>
+      </c>
       <c r="C70" s="624" t="s">
         <v>17</v>
       </c>
@@ -5738,6 +7148,9 @@
       <c r="A71" s="83" t="s">
         <v>76</v>
       </c>
+      <c r="B71" t="s" s="1200">
+        <v>411</v>
+      </c>
       <c r="C71" s="626" t="s">
         <v>17</v>
       </c>
@@ -5746,6 +7159,9 @@
       <c r="A72" s="84" t="s">
         <v>77</v>
       </c>
+      <c r="B72" t="s" s="1202">
+        <v>412</v>
+      </c>
       <c r="C72" s="628" t="s">
         <v>17</v>
       </c>
@@ -5754,6 +7170,9 @@
       <c r="A73" s="85" t="s">
         <v>78</v>
       </c>
+      <c r="B73" t="s" s="1204">
+        <v>414</v>
+      </c>
       <c r="C73" s="630" t="s">
         <v>17</v>
       </c>
@@ -5762,6 +7181,9 @@
       <c r="A74" s="86" t="s">
         <v>79</v>
       </c>
+      <c r="B74" t="s" s="1286">
+        <v>359</v>
+      </c>
       <c r="C74" s="632" t="s">
         <v>17</v>
       </c>
@@ -5770,6 +7192,9 @@
       <c r="A75" s="87" t="s">
         <v>80</v>
       </c>
+      <c r="B75" t="s" s="1288">
+        <v>361</v>
+      </c>
       <c r="C75" s="634" t="s">
         <v>17</v>
       </c>
@@ -5778,6 +7203,9 @@
       <c r="A76" s="88" t="s">
         <v>81</v>
       </c>
+      <c r="B76" t="s" s="1290">
+        <v>363</v>
+      </c>
       <c r="C76" s="636" t="s">
         <v>17</v>
       </c>
@@ -5786,6 +7214,9 @@
       <c r="A77" s="89" t="s">
         <v>82</v>
       </c>
+      <c r="B77" t="s" s="1292">
+        <v>365</v>
+      </c>
       <c r="C77" s="638" t="s">
         <v>17</v>
       </c>
@@ -5794,6 +7225,9 @@
       <c r="A78" s="90" t="s">
         <v>83</v>
       </c>
+      <c r="B78" t="s" s="1294">
+        <v>367</v>
+      </c>
       <c r="C78" s="640" t="s">
         <v>17</v>
       </c>
@@ -5802,6 +7236,9 @@
       <c r="A79" s="91" t="s">
         <v>84</v>
       </c>
+      <c r="B79" t="s" s="1296">
+        <v>369</v>
+      </c>
       <c r="C79" s="642" t="s">
         <v>17</v>
       </c>
@@ -5810,6 +7247,9 @@
       <c r="A80" s="92" t="s">
         <v>85</v>
       </c>
+      <c r="B80" t="s" s="1298">
+        <v>371</v>
+      </c>
       <c r="C80" s="644" t="s">
         <v>17</v>
       </c>
@@ -5818,6 +7258,9 @@
       <c r="A81" s="93" t="s">
         <v>86</v>
       </c>
+      <c r="B81" t="s" s="1300">
+        <v>373</v>
+      </c>
       <c r="C81" s="646" t="s">
         <v>17</v>
       </c>
@@ -5826,6 +7269,9 @@
       <c r="A82" s="94" t="s">
         <v>87</v>
       </c>
+      <c r="B82" t="s" s="1302">
+        <v>375</v>
+      </c>
       <c r="C82" s="648" t="s">
         <v>17</v>
       </c>
@@ -5834,6 +7280,9 @@
       <c r="A83" s="95" t="s">
         <v>88</v>
       </c>
+      <c r="B83" t="s" s="1304">
+        <v>377</v>
+      </c>
       <c r="C83" s="650" t="s">
         <v>17</v>
       </c>
@@ -5842,6 +7291,9 @@
       <c r="A84" s="96" t="s">
         <v>89</v>
       </c>
+      <c r="B84" t="s" s="1306">
+        <v>379</v>
+      </c>
       <c r="C84" s="652" t="s">
         <v>17</v>
       </c>
@@ -5850,6 +7302,9 @@
       <c r="A85" s="97" t="s">
         <v>90</v>
       </c>
+      <c r="B85" t="s" s="1308">
+        <v>381</v>
+      </c>
       <c r="C85" s="654" t="s">
         <v>17</v>
       </c>
@@ -5858,6 +7313,9 @@
       <c r="A86" s="98" t="s">
         <v>91</v>
       </c>
+      <c r="B86" t="s" s="1310">
+        <v>383</v>
+      </c>
       <c r="C86" s="656" t="s">
         <v>17</v>
       </c>
@@ -5866,6 +7324,9 @@
       <c r="A87" s="99" t="s">
         <v>92</v>
       </c>
+      <c r="B87" t="s" s="1312">
+        <v>384</v>
+      </c>
       <c r="C87" s="658" t="s">
         <v>17</v>
       </c>
@@ -5874,6 +7335,9 @@
       <c r="A88" s="100" t="s">
         <v>93</v>
       </c>
+      <c r="B88" t="s" s="1314">
+        <v>385</v>
+      </c>
       <c r="C88" s="660" t="s">
         <v>17</v>
       </c>
@@ -5882,6 +7346,9 @@
       <c r="A89" s="101" t="s">
         <v>94</v>
       </c>
+      <c r="B89" t="s" s="1316">
+        <v>386</v>
+      </c>
       <c r="C89" s="662" t="s">
         <v>17</v>
       </c>
@@ -5890,6 +7357,9 @@
       <c r="A90" s="102" t="s">
         <v>95</v>
       </c>
+      <c r="B90" t="s" s="1318">
+        <v>387</v>
+      </c>
       <c r="C90" s="664" t="s">
         <v>17</v>
       </c>
@@ -5898,6 +7368,9 @@
       <c r="A91" s="103" t="s">
         <v>96</v>
       </c>
+      <c r="B91" t="s" s="1320">
+        <v>388</v>
+      </c>
       <c r="C91" s="666" t="s">
         <v>17</v>
       </c>
@@ -5906,6 +7379,9 @@
       <c r="A92" s="104" t="s">
         <v>97</v>
       </c>
+      <c r="B92" t="s" s="1322">
+        <v>389</v>
+      </c>
       <c r="C92" s="668" t="s">
         <v>17</v>
       </c>
@@ -5914,6 +7390,9 @@
       <c r="A93" s="105" t="s">
         <v>98</v>
       </c>
+      <c r="B93" t="s" s="1324">
+        <v>390</v>
+      </c>
       <c r="C93" s="670" t="s">
         <v>17</v>
       </c>
@@ -5922,6 +7401,9 @@
       <c r="A94" s="106" t="s">
         <v>99</v>
       </c>
+      <c r="B94" t="s" s="1326">
+        <v>391</v>
+      </c>
       <c r="C94" s="672" t="s">
         <v>17</v>
       </c>
@@ -5930,6 +7412,9 @@
       <c r="A95" s="107" t="s">
         <v>100</v>
       </c>
+      <c r="B95" t="s" s="1328">
+        <v>393</v>
+      </c>
       <c r="C95" s="674" t="s">
         <v>17</v>
       </c>
@@ -5938,6 +7423,9 @@
       <c r="A96" s="108" t="s">
         <v>101</v>
       </c>
+      <c r="B96" t="s" s="1330">
+        <v>395</v>
+      </c>
       <c r="C96" s="676" t="s">
         <v>17</v>
       </c>
@@ -5946,6 +7434,9 @@
       <c r="A97" s="109" t="s">
         <v>102</v>
       </c>
+      <c r="B97" t="s" s="1332">
+        <v>397</v>
+      </c>
       <c r="C97" s="678" t="s">
         <v>17</v>
       </c>
@@ -5954,6 +7445,9 @@
       <c r="A98" s="110" t="s">
         <v>103</v>
       </c>
+      <c r="B98" t="s" s="1334">
+        <v>399</v>
+      </c>
       <c r="C98" s="680" t="s">
         <v>17</v>
       </c>
@@ -5962,6 +7456,9 @@
       <c r="A99" s="111" t="s">
         <v>104</v>
       </c>
+      <c r="B99" t="s" s="1336">
+        <v>401</v>
+      </c>
       <c r="C99" s="682" t="s">
         <v>17</v>
       </c>
@@ -5970,6 +7467,9 @@
       <c r="A100" s="112" t="s">
         <v>105</v>
       </c>
+      <c r="B100" t="s" s="1338">
+        <v>403</v>
+      </c>
       <c r="C100" s="684" t="s">
         <v>17</v>
       </c>
@@ -5978,6 +7478,9 @@
       <c r="A101" s="113" t="s">
         <v>106</v>
       </c>
+      <c r="B101" t="s" s="1340">
+        <v>405</v>
+      </c>
       <c r="C101" s="686" t="s">
         <v>17</v>
       </c>
@@ -5986,6 +7489,9 @@
       <c r="A102" s="114" t="s">
         <v>107</v>
       </c>
+      <c r="B102" t="s" s="1342">
+        <v>407</v>
+      </c>
       <c r="C102" s="688" t="s">
         <v>17</v>
       </c>
@@ -5994,6 +7500,9 @@
       <c r="A103" s="115" t="s">
         <v>108</v>
       </c>
+      <c r="B103" t="s" s="1344">
+        <v>409</v>
+      </c>
       <c r="C103" s="690" t="s">
         <v>17</v>
       </c>
@@ -6002,6 +7511,9 @@
       <c r="A104" s="116" t="s">
         <v>109</v>
       </c>
+      <c r="B104" t="s" s="1346">
+        <v>411</v>
+      </c>
       <c r="C104" s="692" t="s">
         <v>17</v>
       </c>
@@ -6010,6 +7522,9 @@
       <c r="A105" s="117" t="s">
         <v>110</v>
       </c>
+      <c r="B105" t="s" s="1348">
+        <v>412</v>
+      </c>
       <c r="C105" s="694" t="s">
         <v>17</v>
       </c>
@@ -6018,6 +7533,9 @@
       <c r="A106" s="118" t="s">
         <v>111</v>
       </c>
+      <c r="B106" t="s" s="1350">
+        <v>414</v>
+      </c>
       <c r="C106" s="696" t="s">
         <v>17</v>
       </c>
@@ -6026,6 +7544,9 @@
       <c r="A107" s="119" t="s">
         <v>112</v>
       </c>
+      <c r="B107" t="s" s="1352">
+        <v>426</v>
+      </c>
       <c r="C107" s="698" t="s">
         <v>17</v>
       </c>
@@ -6034,6 +7555,9 @@
       <c r="A108" s="120" t="s">
         <v>113</v>
       </c>
+      <c r="B108" t="s" s="1354">
+        <v>427</v>
+      </c>
       <c r="C108" s="700" t="s">
         <v>17</v>
       </c>
@@ -6042,6 +7566,9 @@
       <c r="A109" s="121" t="s">
         <v>114</v>
       </c>
+      <c r="B109" t="s" s="1356">
+        <v>428</v>
+      </c>
       <c r="C109" s="702" t="s">
         <v>17</v>
       </c>
@@ -6050,6 +7577,9 @@
       <c r="A110" s="122" t="s">
         <v>115</v>
       </c>
+      <c r="B110" t="s" s="1358">
+        <v>429</v>
+      </c>
       <c r="C110" s="704" t="s">
         <v>17</v>
       </c>
@@ -6058,6 +7588,9 @@
       <c r="A111" s="123" t="s">
         <v>116</v>
       </c>
+      <c r="B111" t="s" s="1360">
+        <v>428</v>
+      </c>
       <c r="C111" s="706" t="s">
         <v>17</v>
       </c>
@@ -6066,6 +7599,9 @@
       <c r="A112" s="124" t="s">
         <v>117</v>
       </c>
+      <c r="B112" t="s" s="1362">
+        <v>428</v>
+      </c>
       <c r="C112" s="708" t="s">
         <v>17</v>
       </c>
@@ -8912,6 +10448,1016 @@
     <row r="637">
       <c r="A637" t="s" s="1011">
         <v>350</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="1013">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="1014">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="1015">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="1016">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="1017">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="1018">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="1019">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="1021">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="1023">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="1025">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="1027">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="1029">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="1031">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="1033">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="1035">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="1037">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="1039">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="1041">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="1043">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="1045">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="1047">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="1049">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="1051">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="1053">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="1055">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="1057">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="1059">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="1061">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="1063">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="1065">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="1067">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="1069">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="1071">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="1073">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="1075">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="1077">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="1079">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="1081">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="1083">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="1085">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="1087">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="1089">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="1091">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="1093">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="1095">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="1097">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="1099">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="1101">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="1103">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="1105">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="1107">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="1109">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="1111">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="1113">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="1115">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="1117">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="1119">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="1121">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="1123">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="1125">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="1127">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="1129">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="1131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="1132">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="1133">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="1134">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="1135">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="1136">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="1137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="1138">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="1139">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="1140">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="1141">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="1142">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="1143">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="1144">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="1145">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="1146">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="1147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="1148">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="1149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="1150">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="1151">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="1152">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="1153">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="1154">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="1155">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="1157">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="1159">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="1161">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="1163">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="1165">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="1167">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="1169">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="1171">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="1173">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="1175">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="1177">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="1179">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="1181">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="1183">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="1185">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="1187">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="1189">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="1191">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="1193">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="1195">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="1197">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="1199">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="1201">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="1203">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="1205">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="1206">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="1207">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="1208">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s" s="1209">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s" s="1210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s" s="1211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s" s="1212">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s" s="1213">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s" s="1214">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s" s="1215">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s" s="1216">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s" s="1217">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s" s="1218">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s" s="1219">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s" s="1220">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s" s="1221">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s" s="1222">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s" s="1223">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s" s="1224">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s" s="1225">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s" s="1226">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s" s="1227">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s" s="1228">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s" s="1229">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s" s="1231">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s" s="1233">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s" s="1235">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s" s="1237">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s" s="1239">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s" s="1241">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s" s="1243">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s" s="1245">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s" s="1247">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s" s="1249">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s" s="1251">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s" s="1253">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s" s="1255">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s" s="1257">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s" s="1259">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s" s="1261">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s" s="1263">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s" s="1265">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s" s="1267">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s" s="1269">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s" s="1271">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s" s="1273">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s" s="1275">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s" s="1277">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s" s="1279">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s" s="1281">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s" s="1283">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s" s="1285">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s" s="1287">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s" s="1289">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s" s="1291">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s" s="1293">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s" s="1295">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s" s="1297">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s" s="1299">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s" s="1301">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s" s="1303">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s" s="1305">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s" s="1307">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s" s="1309">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s" s="1311">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s" s="1313">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s" s="1315">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s" s="1317">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s" s="1319">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s" s="1321">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s" s="1323">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s" s="1325">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s" s="1327">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s" s="1329">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s" s="1331">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s" s="1333">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s" s="1335">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s" s="1337">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s" s="1339">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s" s="1341">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s" s="1343">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s" s="1345">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s" s="1347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s" s="1349">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s" s="1351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s" s="1353">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s" s="1355">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s" s="1357">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s" s="1359">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s" s="1361">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>/samples/essay/gender-studies</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/202</t>
+  </si>
+  <si>
+    <t>/sample-test</t>
   </si>
 </sst>
 </file>
@@ -716,10 +722,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1176,8 +1188,12 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -79,6 +79,267 @@
   </si>
   <si>
     <t>/sample-test</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/220</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/221</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/222</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/223</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/224</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/225</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/226</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/227</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/228</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/229</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/230</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/231</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/232</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/233</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/234</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/235</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/236</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/237</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/238</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/239</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/240</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/241</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/269</t>
+  </si>
+  <si>
+    <t>/samples/essay/persuasive-essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/270</t>
+  </si>
+  <si>
+    <t>/samples/essay/mba-application</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/271</t>
+  </si>
+  <si>
+    <t>/samples/essay/anthropology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/272</t>
+  </si>
+  <si>
+    <t>/samples/essay/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/273</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/health-care</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/274</t>
+  </si>
+  <si>
+    <t>/discussion-post/history</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/275</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/276</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/277</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/culture-and-society</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/278</t>
+  </si>
+  <si>
+    <t>/samples/term-paper/criminal-law</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/279</t>
+  </si>
+  <si>
+    <t>/samples/homework/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/280</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/281</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/gun-control</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/282</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/business-managment</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/283</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/phd</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/284</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/mla</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/285</t>
+  </si>
+  <si>
+    <t>/samples/personal-statement/medicine</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/286</t>
+  </si>
+  <si>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/287</t>
+  </si>
+  <si>
+    <t>/samples/speech/graduation</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/288</t>
+  </si>
+  <si>
+    <t>/samples/speech/high-school</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/289</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/spectrophotometry-lab</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/290</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/chemistry</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/291</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/physics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/292</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/biology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/293</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/statistics</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/294</t>
+  </si>
+  <si>
+    <t>/samples/lesson-plan/education</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/295</t>
+  </si>
+  <si>
+    <t>/samples/nursing-plan/nursing</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/296</t>
+  </si>
+  <si>
+    <t>/samples/epq-essay/essay</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/297</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation</t>
+  </si>
+  <si>
+    <t>/samples/question-answer/psychology</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/190</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/191</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
   </si>
 </sst>
 </file>
@@ -722,10 +983,286 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1197,292 +1734,476 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>43</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>61</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>63</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>77</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>79</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>81</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>83</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>85</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>87</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>89</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>91</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>93</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>95</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>97</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="102" t="s">
+        <v>99</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="104" t="s">
+        <v>100</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>8</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="108" t="s">
+        <v>6</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>16</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="63" t="s">
+        <v>60</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="67" t="s">
+        <v>64</v>
+      </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="71" t="s">
+        <v>68</v>
+      </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="73" t="s">
+        <v>70</v>
+      </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="77" t="s">
+        <v>74</v>
+      </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="79" t="s">
+        <v>76</v>
+      </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="81" t="s">
+        <v>78</v>
+      </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="83" t="s">
+        <v>80</v>
+      </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="85" t="s">
+        <v>82</v>
+      </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="87" t="s">
+        <v>84</v>
+      </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="89" t="s">
+        <v>86</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="91" t="s">
+        <v>88</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="93" t="s">
+        <v>90</v>
+      </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="95" t="s">
+        <v>92</v>
+      </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="97" t="s">
+        <v>94</v>
+      </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="99" t="s">
+        <v>96</v>
+      </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="101" t="s">
+        <v>98</v>
+      </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="103" t="s">
+        <v>13</v>
+      </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="105" t="s">
+        <v>101</v>
+      </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="107" t="s">
+        <v>102</v>
+      </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="109" t="s">
+        <v>103</v>
+      </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -340,6 +340,192 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/346</t>
+  </si>
+  <si>
+    <t>/samples/essay/gender-studies5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/348</t>
+  </si>
+  <si>
+    <t>/samples/essay/persuasive-essay5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/350</t>
+  </si>
+  <si>
+    <t>/samples/essay/mba-application5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/352</t>
+  </si>
+  <si>
+    <t>/samples/essay/anthropology5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/354</t>
+  </si>
+  <si>
+    <t>/samples/essay/criminal-law5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/355</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/health-care5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/357</t>
+  </si>
+  <si>
+    <t>/discussion-post/history5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/359</t>
+  </si>
+  <si>
+    <t>/samples/discussion-post/statistics5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/361</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/criminal-law5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/363</t>
+  </si>
+  <si>
+    <t>/samples/critical-thinking/culture-and-society5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/365</t>
+  </si>
+  <si>
+    <t>/samples/term-paper/criminal-law5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/367</t>
+  </si>
+  <si>
+    <t>/samples/homework/statistics5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/369</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/apa5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/371</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/gun-control5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/372</t>
+  </si>
+  <si>
+    <t>/samples/research-paper/business-managment5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/374</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/phd5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/376</t>
+  </si>
+  <si>
+    <t>/samples/research-proposal/mla5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/378</t>
+  </si>
+  <si>
+    <t>/samples/personal-statement/medicine5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/380</t>
+  </si>
+  <si>
+    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/382</t>
+  </si>
+  <si>
+    <t>/samples/speech/graduation5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/384</t>
+  </si>
+  <si>
+    <t>/samples/speech/high-school5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/386</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/spectrophotometry-lab5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/388</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/chemistry5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/390</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/physics5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/392</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/biology5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/394</t>
+  </si>
+  <si>
+    <t>/samples/lab-report/statistics5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/396</t>
+  </si>
+  <si>
+    <t>/samples/lesson-plan/education5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/398</t>
+  </si>
+  <si>
+    <t>/samples/nursing-plan/nursing5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/400</t>
+  </si>
+  <si>
+    <t>/samples/epq-essay/essay5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/402</t>
+  </si>
+  <si>
+    <t>/samples/epq-presentation/presentation5</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/samples/edit/403</t>
+  </si>
+  <si>
+    <t>/samples/question-answer/psychology5</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1169,196 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -2043,322 +2415,446 @@
       <c r="A44" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="112" t="s">
+        <v>105</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="114" t="s">
+        <v>107</v>
+      </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="116" t="s">
+        <v>109</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="118" t="s">
+        <v>111</v>
+      </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="120" t="s">
+        <v>113</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="122" t="s">
+        <v>115</v>
+      </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="124" t="s">
+        <v>117</v>
+      </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="126" t="s">
+        <v>119</v>
+      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="128" t="s">
+        <v>121</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="130" t="s">
+        <v>123</v>
+      </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="132" t="s">
+        <v>125</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="134" t="s">
+        <v>127</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="136" t="s">
+        <v>129</v>
+      </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="138" t="s">
+        <v>131</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="140" t="s">
+        <v>133</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="142" t="s">
+        <v>135</v>
+      </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="144" t="s">
+        <v>137</v>
+      </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="146" t="s">
+        <v>139</v>
+      </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="148" t="s">
+        <v>141</v>
+      </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="150" t="s">
+        <v>143</v>
+      </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="152" t="s">
+        <v>145</v>
+      </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="154" t="s">
+        <v>147</v>
+      </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="156" t="s">
+        <v>149</v>
+      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="158" t="s">
+        <v>151</v>
+      </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="160" t="s">
+        <v>153</v>
+      </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="162" t="s">
+        <v>155</v>
+      </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="164" t="s">
+        <v>157</v>
+      </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="166" t="s">
+        <v>159</v>
+      </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="168" t="s">
+        <v>161</v>
+      </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="170" t="s">
+        <v>163</v>
+      </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="172" t="s">
+        <v>165</v>
+      </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
+      <c r="A75" s="125" t="s">
+        <v>118</v>
+      </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="127" t="s">
+        <v>120</v>
+      </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
+      <c r="A77" s="129" t="s">
+        <v>122</v>
+      </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="131" t="s">
+        <v>124</v>
+      </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
+      <c r="A79" s="133" t="s">
+        <v>126</v>
+      </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="135" t="s">
+        <v>128</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="137" t="s">
+        <v>130</v>
+      </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="139" t="s">
+        <v>132</v>
+      </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="141" t="s">
+        <v>134</v>
+      </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="143" t="s">
+        <v>136</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="145" t="s">
+        <v>138</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="147" t="s">
+        <v>140</v>
+      </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="149" t="s">
+        <v>142</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="151" t="s">
+        <v>144</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="153" t="s">
+        <v>146</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="155" t="s">
+        <v>148</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="157" t="s">
+        <v>150</v>
+      </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="159" t="s">
+        <v>152</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="161" t="s">
+        <v>154</v>
+      </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="163" t="s">
+        <v>156</v>
+      </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="165" t="s">
+        <v>158</v>
+      </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="167" t="s">
+        <v>160</v>
+      </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="169" t="s">
+        <v>162</v>
+      </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="171" t="s">
+        <v>164</v>
+      </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17850"/>
+    <workbookView windowWidth="21600" windowHeight="17250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -45,22 +45,25 @@
     <t>status</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/196</t>
-  </si>
-  <si>
-    <t>/samples-list</t>
-  </si>
-  <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/197</t>
   </si>
   <si>
-    <t>/sample-hien</t>
+    <t>about-hien</t>
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/198</t>
   </si>
   <si>
+    <t>tokpage-hien</t>
+  </si>
+  <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/199</t>
+  </si>
+  <si>
+    <t>contacts-hien</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/200</t>
@@ -69,463 +72,7 @@
     <t>https://yeti-cms.dev/yeti/main/articles/edit/201</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/298</t>
-  </si>
-  <si>
-    <t>/samples/essay/gender-studies</t>
-  </si>
-  <si>
     <t>https://yeti-cms.dev/yeti/main/articles/edit/202</t>
-  </si>
-  <si>
-    <t>/sample-test</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/220</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/221</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/222</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/223</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/224</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/225</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/226</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/227</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/228</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/229</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/230</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/231</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/232</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/233</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/234</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/235</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/236</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/237</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/238</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/239</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/240</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/241</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/268</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/269</t>
-  </si>
-  <si>
-    <t>/samples/essay/persuasive-essay</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/270</t>
-  </si>
-  <si>
-    <t>/samples/essay/mba-application</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/271</t>
-  </si>
-  <si>
-    <t>/samples/essay/anthropology</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/272</t>
-  </si>
-  <si>
-    <t>/samples/essay/criminal-law</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/273</t>
-  </si>
-  <si>
-    <t>/samples/discussion-post/health-care</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/274</t>
-  </si>
-  <si>
-    <t>/discussion-post/history</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/275</t>
-  </si>
-  <si>
-    <t>/samples/discussion-post/statistics</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/276</t>
-  </si>
-  <si>
-    <t>/samples/critical-thinking/criminal-law</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/277</t>
-  </si>
-  <si>
-    <t>/samples/critical-thinking/culture-and-society</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/278</t>
-  </si>
-  <si>
-    <t>/samples/term-paper/criminal-law</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/279</t>
-  </si>
-  <si>
-    <t>/samples/homework/statistics</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/280</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/apa</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/281</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/gun-control</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/282</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/business-managment</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/283</t>
-  </si>
-  <si>
-    <t>/samples/research-proposal/phd</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/284</t>
-  </si>
-  <si>
-    <t>/samples/research-proposal/mla</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/285</t>
-  </si>
-  <si>
-    <t>/samples/personal-statement/medicine</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/286</t>
-  </si>
-  <si>
-    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/287</t>
-  </si>
-  <si>
-    <t>/samples/speech/graduation</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/288</t>
-  </si>
-  <si>
-    <t>/samples/speech/high-school</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/289</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/spectrophotometry-lab</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/290</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/chemistry</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/291</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/physics</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/292</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/biology</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/293</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/statistics</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/294</t>
-  </si>
-  <si>
-    <t>/samples/lesson-plan/education</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/295</t>
-  </si>
-  <si>
-    <t>/samples/nursing-plan/nursing</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/296</t>
-  </si>
-  <si>
-    <t>/samples/epq-essay/essay</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/297</t>
-  </si>
-  <si>
-    <t>/samples/epq-presentation/presentation</t>
-  </si>
-  <si>
-    <t>/samples/question-answer/psychology</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/190</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/191</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/346</t>
-  </si>
-  <si>
-    <t>/samples/essay/gender-studies5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/348</t>
-  </si>
-  <si>
-    <t>/samples/essay/persuasive-essay5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/350</t>
-  </si>
-  <si>
-    <t>/samples/essay/mba-application5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/352</t>
-  </si>
-  <si>
-    <t>/samples/essay/anthropology5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/354</t>
-  </si>
-  <si>
-    <t>/samples/essay/criminal-law5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/355</t>
-  </si>
-  <si>
-    <t>/samples/discussion-post/health-care5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/357</t>
-  </si>
-  <si>
-    <t>/discussion-post/history5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/359</t>
-  </si>
-  <si>
-    <t>/samples/discussion-post/statistics5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/361</t>
-  </si>
-  <si>
-    <t>/samples/critical-thinking/criminal-law5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/363</t>
-  </si>
-  <si>
-    <t>/samples/critical-thinking/culture-and-society5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/365</t>
-  </si>
-  <si>
-    <t>/samples/term-paper/criminal-law5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/367</t>
-  </si>
-  <si>
-    <t>/samples/homework/statistics5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/369</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/apa5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/371</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/gun-control5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/372</t>
-  </si>
-  <si>
-    <t>/samples/research-paper/business-managment5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/374</t>
-  </si>
-  <si>
-    <t>/samples/research-proposal/phd5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/376</t>
-  </si>
-  <si>
-    <t>/samples/research-proposal/mla5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/378</t>
-  </si>
-  <si>
-    <t>/samples/personal-statement/medicine5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/380</t>
-  </si>
-  <si>
-    <t>/samples/powerpoint-presentation/powerpoint-presentation-apa5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/382</t>
-  </si>
-  <si>
-    <t>/samples/speech/graduation5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/384</t>
-  </si>
-  <si>
-    <t>/samples/speech/high-school5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/386</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/spectrophotometry-lab5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/388</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/chemistry5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/390</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/physics5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/392</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/biology5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/394</t>
-  </si>
-  <si>
-    <t>/samples/lab-report/statistics5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/396</t>
-  </si>
-  <si>
-    <t>/samples/lesson-plan/education5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/398</t>
-  </si>
-  <si>
-    <t>/samples/nursing-plan/nursing5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/400</t>
-  </si>
-  <si>
-    <t>/samples/epq-essay/essay5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/402</t>
-  </si>
-  <si>
-    <t>/samples/epq-presentation/presentation5</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/samples/edit/403</t>
-  </si>
-  <si>
-    <t>/samples/question-answer/psychology5</t>
   </si>
 </sst>
 </file>
@@ -1169,493 +716,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -2004,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E839"/>
+  <dimension ref="A1:E835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2034,827 +1098,517 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
+      <c r="A6" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
+      <c r="A7" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>43</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>45</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>49</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>51</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>55</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>57</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>59</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>63</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>65</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>71</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>75</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>77</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>79</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="84" t="s">
-        <v>81</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>83</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="88" t="s">
-        <v>85</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>87</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="92" t="s">
-        <v>89</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="94" t="s">
-        <v>91</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>93</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>95</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="100" t="s">
-        <v>97</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="102" t="s">
-        <v>99</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>100</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="106" t="s">
-        <v>8</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="108" t="s">
-        <v>6</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>16</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="112" t="s">
-        <v>105</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="114" t="s">
-        <v>107</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="116" t="s">
-        <v>109</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="118" t="s">
-        <v>111</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="120" t="s">
-        <v>113</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="122" t="s">
-        <v>115</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="124" t="s">
-        <v>117</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>119</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="128" t="s">
-        <v>121</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="130" t="s">
-        <v>123</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="132" t="s">
-        <v>125</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="134" t="s">
-        <v>127</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="136" t="s">
-        <v>129</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="138" t="s">
-        <v>131</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>133</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="142" t="s">
-        <v>135</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="144" t="s">
-        <v>137</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="146" t="s">
-        <v>139</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="148" t="s">
-        <v>141</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="150" t="s">
-        <v>143</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="152" t="s">
-        <v>145</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="154" t="s">
-        <v>147</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="156" t="s">
-        <v>149</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="158" t="s">
-        <v>151</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="160" t="s">
-        <v>153</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="162" t="s">
-        <v>155</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="164" t="s">
-        <v>157</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="117" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="166" t="s">
-        <v>159</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="168" t="s">
-        <v>161</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="170" t="s">
-        <v>163</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="172" t="s">
-        <v>165</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="125" t="s">
-        <v>118</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="127" t="s">
-        <v>120</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="129" t="s">
-        <v>122</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="131" t="s">
-        <v>124</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="133" t="s">
-        <v>126</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="135" t="s">
-        <v>128</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="137" t="s">
-        <v>130</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="139" t="s">
-        <v>132</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="141" t="s">
-        <v>134</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="143" t="s">
-        <v>136</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="145" t="s">
-        <v>138</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="147" t="s">
-        <v>140</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="149" t="s">
-        <v>142</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="151" t="s">
-        <v>144</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="153" t="s">
-        <v>146</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="155" t="s">
-        <v>148</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="157" t="s">
-        <v>150</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="159" t="s">
-        <v>152</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="161" t="s">
-        <v>154</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="163" t="s">
-        <v>156</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="165" t="s">
-        <v>158</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="167" t="s">
-        <v>160</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="169" t="s">
-        <v>162</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="171" t="s">
-        <v>164</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
@@ -2910,22 +1664,18 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3">
@@ -3204,21 +1954,17 @@
       <c r="A181" s="2"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:1">
       <c r="A182" s="2"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:3">
+    </row>
+    <row r="183" spans="1:1">
       <c r="A183" s="2"/>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:3">
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:3">
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" s="2"/>
-      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="2"/>
@@ -5169,18 +3915,6 @@
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="2"/>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836" s="2"/>
-    </row>
-    <row r="837" spans="1:1">
-      <c r="A837" s="2"/>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="2"/>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="28000" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -32,43 +32,328 @@
     <t>status</t>
   </si>
   <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/189</t>
-  </si>
-  <si>
-    <t>about-hien</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/190</t>
-  </si>
-  <si>
-    <t>vy</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/191</t>
-  </si>
-  <si>
-    <t>Aboutvy2</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/192</t>
-  </si>
-  <si>
-    <t>About-vy3</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/193</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>tokpage1</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/articles/edit/195</t>
-  </si>
-  <si>
-    <t>/TokPageTest</t>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/244</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/245</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/246</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/247</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/248</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/249</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/250</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/251</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/252</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/253</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/255</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/256</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/257</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/259</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/260</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/261</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/262</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/263</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/264</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/265</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/266</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/267</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/268</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/269</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/270</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/271</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/272</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/273</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/274</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/275</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/276</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/277</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/278</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/279</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/280</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/281</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/282</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/283</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/284</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/285</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/286</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/287</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/288</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/289</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/290</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/291</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/292</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/293</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/294</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/295</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/296</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/297</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/298</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/299</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/300</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/301</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/302</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/303</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/304</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/305</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/306</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/307</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/308</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/309</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/310</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/311</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/312</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/313</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/314</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/315</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/316</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/317</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/318</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/319</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/320</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/321</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/322</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/323</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/324</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/325</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/326</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/327</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/328</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/329</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/330</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/331</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/332</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/333</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/334</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/335</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/336</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/337</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/338</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/339</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/340</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/341</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/342</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/343</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/344</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/345</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/346</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/347</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/348</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/349</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
+  </si>
+  <si>
+    <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
   </si>
 </sst>
 </file>
@@ -76,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,9 +381,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,34 +495,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,9 +503,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,79 +519,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,7 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +612,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,31 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,73 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +752,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +786,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -531,6 +795,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -547,6 +826,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -555,167 +849,443 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1079,7 +1649,7 @@
   <dimension ref="A1:E835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1089,11 +1659,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1106,542 +1676,758 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
+      <c r="A42" s="43" t="s">
+        <v>45</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+      <c r="A44" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
+      <c r="A48" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
+      <c r="A49" s="50" t="s">
+        <v>52</v>
+      </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
+      <c r="A50" s="51" t="s">
+        <v>53</v>
+      </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
+      <c r="A51" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
+      <c r="A52" s="53" t="s">
+        <v>55</v>
+      </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
+      <c r="A53" s="54" t="s">
+        <v>56</v>
+      </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
+      <c r="A54" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
+      <c r="A55" s="56" t="s">
+        <v>58</v>
+      </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="57" t="s">
+        <v>59</v>
+      </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="58" t="s">
+        <v>60</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="59" t="s">
+        <v>61</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="60" t="s">
+        <v>62</v>
+      </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="61" t="s">
+        <v>63</v>
+      </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="63" t="s">
+        <v>65</v>
+      </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="64" t="s">
+        <v>66</v>
+      </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="65" t="s">
+        <v>67</v>
+      </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
+      <c r="A65" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
+      <c r="A66" s="67" t="s">
+        <v>69</v>
+      </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
+      <c r="A67" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
+      <c r="A69" s="70" t="s">
+        <v>72</v>
+      </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
+      <c r="A70" s="71" t="s">
+        <v>73</v>
+      </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="72" t="s">
+        <v>74</v>
+      </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
+      <c r="A72" s="73" t="s">
+        <v>75</v>
+      </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
+      <c r="A73" s="74" t="s">
+        <v>76</v>
+      </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
+      <c r="A74" s="75" t="s">
+        <v>77</v>
+      </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
+      <c r="A75" s="76" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
+      <c r="A76" s="77" t="s">
+        <v>79</v>
+      </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
+      <c r="A77" s="78" t="s">
+        <v>80</v>
+      </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
+      <c r="A78" s="79" t="s">
+        <v>81</v>
+      </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
+      <c r="A79" s="80" t="s">
+        <v>82</v>
+      </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
+      <c r="A80" s="81" t="s">
+        <v>83</v>
+      </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
+      <c r="A81" s="82" t="s">
+        <v>84</v>
+      </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
+      <c r="A82" s="83" t="s">
+        <v>85</v>
+      </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="84" t="s">
+        <v>86</v>
+      </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="85" t="s">
+        <v>87</v>
+      </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
+      <c r="A85" s="86" t="s">
+        <v>88</v>
+      </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="87" t="s">
+        <v>89</v>
+      </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="88" t="s">
+        <v>90</v>
+      </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="89" t="s">
+        <v>91</v>
+      </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="90" t="s">
+        <v>92</v>
+      </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="91" t="s">
+        <v>93</v>
+      </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="93" t="s">
+        <v>95</v>
+      </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="94" t="s">
+        <v>96</v>
+      </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="95" t="s">
+        <v>97</v>
+      </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="96" t="s">
+        <v>98</v>
+      </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="97" t="s">
+        <v>99</v>
+      </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="98" t="s">
+        <v>100</v>
+      </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="99" t="s">
+        <v>101</v>
+      </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="100" t="s">
+        <v>102</v>
+      </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="101" t="s">
+        <v>103</v>
+      </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="102" t="s">
+        <v>104</v>
+      </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="103" t="s">
+        <v>105</v>
+      </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="104" t="s">
+        <v>106</v>
+      </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="105" t="s">
+        <v>107</v>
+      </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="106" t="s">
+        <v>108</v>
+      </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="107" t="s">
+        <v>109</v>
+      </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="108" t="s">
+        <v>110</v>
+      </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="109" t="s">
+        <v>111</v>
+      </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="110" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
@@ -3906,7 +4692,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
@@ -362,9 +365,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -381,8 +384,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +411,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,36 +454,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -466,7 +469,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,13 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -495,31 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +555,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,37 +615,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,121 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,7 +768,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +784,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,448 +852,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1648,8 +1396,8 @@
   <sheetPr/>
   <dimension ref="A1:E835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1676,759 +1424,809 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="17" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="18" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="23" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="24" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="77" t="s">
+      <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="81" t="s">
+      <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="84" t="s">
+      <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="87" t="s">
+      <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="91" t="s">
+      <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="94" t="s">
+      <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="96" t="s">
+      <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="98" t="s">
+      <c r="A97" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="99" t="s">
+      <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="100" t="s">
+      <c r="A99" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="101" t="s">
+      <c r="A100" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="102" t="s">
+      <c r="A101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="103" t="s">
+      <c r="A102" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="108" t="s">
+      <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="109" t="s">
+      <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="110" t="s">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2"/>

--- a/src/test/resources/testdata/outputArticles.xlsx
+++ b/src/test/resources/testdata/outputArticles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13620"/>
+    <workbookView windowHeight="23820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -31,343 +31,16 @@
   <si>
     <t>status</t>
   </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/242</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/243</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/244</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/245</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/246</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/247</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/248</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/249</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/250</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/251</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/252</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/253</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/255</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/256</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/257</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/259</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/260</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/261</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/262</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/263</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/264</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/265</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/266</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/267</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/268</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/269</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/270</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/271</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/272</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/273</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/274</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/275</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/276</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/277</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/278</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/279</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/280</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/281</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/282</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/283</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/284</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/285</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/286</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/287</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/288</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/289</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/290</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/291</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/292</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/293</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/294</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/295</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/296</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/297</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/298</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/299</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/300</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/301</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/302</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/303</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/304</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/305</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/306</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/307</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/308</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/309</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/310</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/311</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/312</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/313</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/314</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/315</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/316</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/317</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/318</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/319</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/320</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/321</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/322</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/323</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/324</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/325</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/326</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/327</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/328</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/329</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/330</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/331</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/332</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/333</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/334</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/335</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/336</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/337</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/338</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/339</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/340</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/341</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/342</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/343</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/344</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/345</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/346</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/347</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/348</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/349</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/350</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>https://yeti-cms.dev/yeti/main/writers/edit/351</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -393,7 +66,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +90,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,41 +110,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,7 +127,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +150,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,16 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,22 +187,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,7 +222,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,13 +276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,25 +330,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,19 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,84 +396,9 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill/>
     </fill>
   </fills>
   <borders count="10">
@@ -758,8 +428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,8 +437,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,17 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -814,15 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,6 +484,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,142 +525,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,79 +670,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,14 +1000,14 @@
   <sheetPr/>
   <dimension ref="A1:E835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="70.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1424,809 +1028,543 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="17" t="s">
-        <v>112</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="21" t="s">
-        <v>112</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="22" t="s">
-        <v>112</v>
-      </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="23" t="s">
-        <v>112</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2"/>
@@ -4495,8 +3833,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.5703125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
